--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3625DA7-4CFF-405F-B9E5-FDD1F64D2154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558D7144-A0CF-44B6-92B0-6A74F3A9A072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11430" yWindow="1410" windowWidth="25970" windowHeight="18390" tabRatio="615" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="604">
   <si>
     <t>This over view explaines the working of this file and how it feeds information to the online calculator.</t>
   </si>
@@ -2673,9 +2673,6 @@
   </si>
   <si>
     <t>with FTFM 80 wind</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>for a pair of plates</t>
@@ -20703,7 +20700,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21558,7 +21555,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C44" s="164" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -22509,7 +22506,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24443,7 +24440,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24788,8 +24785,8 @@
       <c r="D18" s="133">
         <v>40</v>
       </c>
-      <c r="E18" s="133" t="s">
-        <v>603</v>
+      <c r="E18" s="133">
+        <v>0</v>
       </c>
       <c r="F18" s="133" t="s">
         <v>21</v>

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558D7144-A0CF-44B6-92B0-6A74F3A9A072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C20AF43-40AF-4E2A-987D-16E65DC72F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="1410" windowWidth="25970" windowHeight="18390" tabRatio="615" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="1410" windowWidth="25970" windowHeight="18390" tabRatio="615" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" state="hidden" r:id="rId1"/>
@@ -359,7 +359,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-space from the edge of the endlock to the guide inner, allowing tolerance and guide fixings. </t>
+space from the edge of the endlock to the guide inner, allowing tolerance and guide fixings.  Can only be standard or wind</t>
         </r>
       </text>
     </comment>
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="603">
   <si>
     <t>This over view explaines the working of this file and how it feeds information to the online calculator.</t>
   </si>
@@ -2661,9 +2661,6 @@
   </si>
   <si>
     <t>not compatible with 40 guide</t>
-  </si>
-  <si>
-    <t>Optional</t>
   </si>
   <si>
     <t>110mm plastic if 60 guide</t>
@@ -21555,7 +21552,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C44" s="164" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -22504,7 +22501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
   <dimension ref="A1:R171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
@@ -23550,7 +23547,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24211,8 +24208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A45B228-839B-4CA5-9448-9CA1774CB22C}">
   <dimension ref="B1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24343,7 +24340,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="143" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C6" s="143" t="s">
         <v>561</v>
@@ -24360,8 +24357,8 @@
       <c r="G6" s="133">
         <v>8</v>
       </c>
-      <c r="H6" s="143" t="s">
-        <v>599</v>
+      <c r="H6" t="s">
+        <v>15</v>
       </c>
       <c r="I6" s="148"/>
       <c r="J6" s="148" t="s">
@@ -24372,7 +24369,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="143" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C7" s="143" t="s">
         <v>561</v>
@@ -24389,8 +24386,8 @@
       <c r="G7" s="133">
         <v>13</v>
       </c>
-      <c r="H7" s="143" t="s">
-        <v>599</v>
+      <c r="H7" t="s">
+        <v>15</v>
       </c>
       <c r="I7" s="148"/>
       <c r="J7" s="148" t="s">
@@ -24423,7 +24420,7 @@
       </c>
       <c r="I8" s="148"/>
       <c r="J8" s="148" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K8" s="148"/>
       <c r="L8" s="148"/>

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C20AF43-40AF-4E2A-987D-16E65DC72F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB463A3-1302-44FA-A8E9-801107CD4EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="1410" windowWidth="25970" windowHeight="18390" tabRatio="615" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="1410" windowWidth="25970" windowHeight="18390" tabRatio="615" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" state="hidden" r:id="rId1"/>
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="603">
   <si>
     <t>This over view explaines the working of this file and how it feeds information to the online calculator.</t>
   </si>
@@ -23546,8 +23546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB485315-044F-4FB0-A3DD-44B741CAB625}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23765,9 +23765,7 @@
       <c r="O5" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="143" t="s">
-        <v>560</v>
-      </c>
+      <c r="P5" s="143"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="143" t="s">
@@ -23816,9 +23814,7 @@
       <c r="O6" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="143" t="s">
-        <v>560</v>
-      </c>
+      <c r="P6" s="143"/>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="143" t="s">
@@ -23867,9 +23863,7 @@
       <c r="O7" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="143" t="s">
-        <v>29</v>
-      </c>
+      <c r="P7" s="143"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D8" s="153"/>
@@ -24208,7 +24202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A45B228-839B-4CA5-9448-9CA1774CB22C}">
   <dimension ref="B1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB463A3-1302-44FA-A8E9-801107CD4EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D853598-F483-4A8C-AA32-1D4C73C0388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="1410" windowWidth="25970" windowHeight="18390" tabRatio="615" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="1410" windowWidth="25970" windowHeight="18390" tabRatio="615" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" state="hidden" r:id="rId1"/>
@@ -22501,9 +22501,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
   <dimension ref="A1:R171"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22778,7 +22778,6 @@
         <v>555</v>
       </c>
       <c r="B6">
-        <f>C6*$C$18</f>
         <v>7.1090909090909102</v>
       </c>
       <c r="C6" s="129">
@@ -22832,7 +22831,6 @@
         <v>556</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B16" si="0">C7*$C$18</f>
         <v>9.4181818181818198</v>
       </c>
       <c r="C7" s="132">
@@ -22887,7 +22885,6 @@
         <v>557</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
         <v>11.772727272727273</v>
       </c>
       <c r="C8" s="129">
@@ -22941,7 +22938,6 @@
         <v>558</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
         <v>14.127272727272729</v>
       </c>
       <c r="C9" s="132">
@@ -22996,7 +22992,6 @@
         <v>555</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
         <v>7.1090909090909102</v>
       </c>
       <c r="C10" s="129">
@@ -23050,7 +23045,6 @@
         <v>556</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
         <v>9.4181818181818198</v>
       </c>
       <c r="C11" s="132">
@@ -23105,7 +23099,6 @@
         <v>557</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
         <v>11.772727272727273</v>
       </c>
       <c r="C12" s="129">
@@ -23159,7 +23152,6 @@
         <v>558</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
         <v>14.127272727272729</v>
       </c>
       <c r="C13" s="132">
@@ -23214,7 +23206,6 @@
         <v>562</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
         <v>5.5909090909090917</v>
       </c>
       <c r="C14" s="157">
@@ -23269,7 +23260,6 @@
         <v>563</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
         <v>7.4</v>
       </c>
       <c r="C15" s="132">
@@ -23324,7 +23314,6 @@
         <v>564</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
         <v>9.2545454545454557</v>
       </c>
       <c r="C16" s="157">
@@ -23374,27 +23363,22 @@
         <v>561</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="3:3" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18">
-        <f>1000/110</f>
-        <v>9.0909090909090917</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="3:3" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="3:3" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="3:3" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="3:3" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="3:3" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="3:3" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="3:3" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="3:3" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="3:3" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="3:3" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="3:3" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="3:3" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="3:3" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="34" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -23546,7 +23530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB485315-044F-4FB0-A3DD-44B741CAB625}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D853598-F483-4A8C-AA32-1D4C73C0388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3695DA91-2EF5-43A2-B6B3-E40F0BF3F293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="1410" windowWidth="25970" windowHeight="18390" tabRatio="615" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="1410" windowWidth="25970" windowHeight="18390" tabRatio="615" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" state="hidden" r:id="rId1"/>
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="603">
   <si>
     <t>This over view explaines the working of this file and how it feeds information to the online calculator.</t>
   </si>
@@ -9750,9 +9750,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
   <dimension ref="A1:V159"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10386,7 +10386,9 @@
       <c r="K13" s="141">
         <v>80</v>
       </c>
-      <c r="L13" s="141"/>
+      <c r="L13" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="M13" s="141" t="s">
         <v>25</v>
       </c>
@@ -10442,7 +10444,9 @@
       <c r="K14" s="141">
         <v>80</v>
       </c>
-      <c r="L14" s="141"/>
+      <c r="L14" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="M14" s="141" t="s">
         <v>25</v>
       </c>
@@ -10498,7 +10502,9 @@
       <c r="K15" s="141">
         <v>80</v>
       </c>
-      <c r="L15" s="141"/>
+      <c r="L15" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="M15" s="141" t="s">
         <v>25</v>
       </c>
@@ -10554,7 +10560,9 @@
       <c r="K16" s="141">
         <v>89</v>
       </c>
-      <c r="L16" s="141"/>
+      <c r="L16" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="M16" s="141" t="s">
         <v>25</v>
       </c>
@@ -10610,7 +10618,9 @@
       <c r="K17" s="141">
         <v>89</v>
       </c>
-      <c r="L17" s="141"/>
+      <c r="L17" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="M17" s="141" t="s">
         <v>25</v>
       </c>
@@ -22501,7 +22511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
   <dimension ref="A1:R171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3695DA91-2EF5-43A2-B6B3-E40F0BF3F293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1938DC31-1F11-4851-B2B6-FDE58FC2597A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="1410" windowWidth="25970" windowHeight="18390" tabRatio="615" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="1410" windowWidth="25970" windowHeight="18390" tabRatio="615" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2531,18 +2531,6 @@
     <t>Industrial  600 flat</t>
   </si>
   <si>
-    <t xml:space="preserve">110mm 6/10 Solid </t>
-  </si>
-  <si>
-    <t xml:space="preserve">110mm 8/10 Solid </t>
-  </si>
-  <si>
-    <t xml:space="preserve">110mm 10/10 Solid </t>
-  </si>
-  <si>
-    <t xml:space="preserve">110mm 12/10 Solid </t>
-  </si>
-  <si>
     <t>Murax</t>
   </si>
   <si>
@@ -2552,15 +2540,6 @@
     <t>110mm</t>
   </si>
   <si>
-    <t xml:space="preserve">110mm 6/10 microperforated </t>
-  </si>
-  <si>
-    <t xml:space="preserve">110mm 8/10 microperforated </t>
-  </si>
-  <si>
-    <t xml:space="preserve">110mm 10/10 microperforated </t>
-  </si>
-  <si>
     <t>110mm lath</t>
   </si>
   <si>
@@ -2673,6 +2652,27 @@
   </si>
   <si>
     <t>for a pair of plates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110mm 6 10 Solid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">110mm 8 10 Solid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">110mm 10 10 Solid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">110mm 12 10 Solid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">110mm 6 10 microperforated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">110mm 8 10 microperforated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">110mm 10 10 microperforated </t>
   </si>
 </sst>
 </file>
@@ -9750,7 +9750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
   <dimension ref="A1:V159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
@@ -10294,7 +10294,7 @@
         <v>25</v>
       </c>
       <c r="N11" s="146" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="O11" s="5">
         <v>15</v>
@@ -10356,7 +10356,7 @@
     </row>
     <row r="13" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="144" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B13" s="144" t="s">
         <v>226</v>
@@ -10414,7 +10414,7 @@
     </row>
     <row r="14" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="144" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B14" s="144" t="s">
         <v>226</v>
@@ -10472,7 +10472,7 @@
     </row>
     <row r="15" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="144" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B15" s="144" t="s">
         <v>226</v>
@@ -10530,7 +10530,7 @@
     </row>
     <row r="16" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="144" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B16" s="144" t="s">
         <v>226</v>
@@ -10588,7 +10588,7 @@
     </row>
     <row r="17" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="144" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B17" s="144" t="s">
         <v>226</v>
@@ -20616,7 +20616,7 @@
     </row>
     <row r="18" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="149" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B18" s="133">
         <v>368</v>
@@ -20628,7 +20628,7 @@
         <v>22</v>
       </c>
       <c r="E18" s="150" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F18" s="143"/>
       <c r="G18" s="133">
@@ -20641,7 +20641,7 @@
     </row>
     <row r="19" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="149" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B19" s="133">
         <v>650</v>
@@ -20653,7 +20653,7 @@
         <v>22</v>
       </c>
       <c r="E19" s="150" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F19" s="143"/>
       <c r="G19" s="133">
@@ -21436,7 +21436,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="151" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B37" s="133">
         <v>280</v>
@@ -21457,7 +21457,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="151" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B38" s="133">
         <v>310</v>
@@ -21478,7 +21478,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="151" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B39" s="133">
         <v>340</v>
@@ -21499,7 +21499,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="151" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B40" s="133">
         <v>370</v>
@@ -21520,7 +21520,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="151" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B41" s="133">
         <v>400</v>
@@ -21541,7 +21541,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="151" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B42" s="133">
         <v>440</v>
@@ -21562,7 +21562,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C44" s="164" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -22511,9 +22511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
   <dimension ref="A1:R171"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="R6" sqref="R6:R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22785,7 +22785,7 @@
     </row>
     <row r="6" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>555</v>
+        <v>596</v>
       </c>
       <c r="B6">
         <v>7.1090909090909102</v>
@@ -22827,18 +22827,18 @@
         <v>22</v>
       </c>
       <c r="P6" s="52" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>29</v>
       </c>
       <c r="R6" s="125" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="130" t="s">
-        <v>556</v>
+        <v>597</v>
       </c>
       <c r="B7">
         <v>9.4181818181818198</v>
@@ -22881,18 +22881,18 @@
         <v>22</v>
       </c>
       <c r="P7" s="52" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="R7" s="125" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>557</v>
+        <v>598</v>
       </c>
       <c r="B8">
         <v>11.772727272727273</v>
@@ -22934,18 +22934,18 @@
         <v>22</v>
       </c>
       <c r="P8" s="52" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="R8" s="125" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="130" t="s">
-        <v>558</v>
+        <v>599</v>
       </c>
       <c r="B9">
         <v>14.127272727272729</v>
@@ -22988,18 +22988,18 @@
         <v>22</v>
       </c>
       <c r="P9" s="52" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="R9" s="125" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>555</v>
+        <v>596</v>
       </c>
       <c r="B10">
         <v>7.1090909090909102</v>
@@ -23032,7 +23032,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>21</v>
@@ -23041,18 +23041,18 @@
         <v>22</v>
       </c>
       <c r="P10" s="52" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="R10" s="125" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="130" t="s">
-        <v>556</v>
+        <v>597</v>
       </c>
       <c r="B11">
         <v>9.4181818181818198</v>
@@ -23086,7 +23086,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>21</v>
@@ -23095,18 +23095,18 @@
         <v>22</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="R11" s="125" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>557</v>
+        <v>598</v>
       </c>
       <c r="B12">
         <v>11.772727272727273</v>
@@ -23139,7 +23139,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>21</v>
@@ -23148,18 +23148,18 @@
         <v>22</v>
       </c>
       <c r="P12" s="52" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="R12" s="125" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="130" t="s">
-        <v>558</v>
+        <v>599</v>
       </c>
       <c r="B13">
         <v>14.127272727272729</v>
@@ -23193,7 +23193,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>21</v>
@@ -23202,18 +23202,18 @@
         <v>22</v>
       </c>
       <c r="P13" s="52" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>29</v>
       </c>
       <c r="R13" s="125" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="155" t="s">
-        <v>562</v>
+        <v>600</v>
       </c>
       <c r="B14">
         <v>5.5909090909090917</v>
@@ -23247,7 +23247,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>21</v>
@@ -23256,18 +23256,18 @@
         <v>22</v>
       </c>
       <c r="P14" s="52" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>29</v>
       </c>
       <c r="R14" s="125" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="159" t="s">
-        <v>563</v>
+        <v>601</v>
       </c>
       <c r="B15">
         <v>7.4</v>
@@ -23301,7 +23301,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>21</v>
@@ -23310,18 +23310,18 @@
         <v>22</v>
       </c>
       <c r="P15" s="52" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="R15" s="125" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="155" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="B16">
         <v>9.2545454545454557</v>
@@ -23355,7 +23355,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>21</v>
@@ -23364,13 +23364,13 @@
         <v>22</v>
       </c>
       <c r="P16" s="52" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Q16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="R16" s="125" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -23541,7 +23541,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23580,7 +23580,7 @@
         <v>511</v>
       </c>
       <c r="H1" s="136" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="I1" s="127" t="s">
         <v>512</v>
@@ -23715,7 +23715,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="143" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B5" s="163">
         <v>2.8730000000000002</v>
@@ -23763,7 +23763,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="143" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B6" s="163">
         <f>B5+1.539</f>
@@ -23812,7 +23812,7 @@
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="143" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B7" s="163">
         <f>B5+2*1.539</f>
@@ -24328,10 +24328,10 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="143" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C6" s="143" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D6" s="143" t="s">
         <v>126</v>
@@ -24350,17 +24350,17 @@
       </c>
       <c r="I6" s="148"/>
       <c r="J6" s="148" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="K6" s="148"/>
       <c r="L6" s="148"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="143" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C7" s="143" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D7" s="143" t="s">
         <v>126</v>
@@ -24379,17 +24379,17 @@
       </c>
       <c r="I7" s="148"/>
       <c r="J7" s="148" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="K7" s="148"/>
       <c r="L7" s="148"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="143" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C8" s="143" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D8" s="143" t="s">
         <v>129</v>
@@ -24408,7 +24408,7 @@
       </c>
       <c r="I8" s="148"/>
       <c r="J8" s="148" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="K8" s="148"/>
       <c r="L8" s="148"/>
@@ -24758,7 +24758,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="143" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B18" s="143" t="str">
         <f>A18</f>
@@ -24779,12 +24779,12 @@
       <c r="G18" s="133"/>
       <c r="H18" s="133"/>
       <c r="I18" s="133" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="143" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B20" s="143" t="str">
         <f>A20</f>
@@ -24805,12 +24805,12 @@
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
       <c r="I20" s="133" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="143" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B21" s="143" t="str">
         <f>A21</f>
@@ -24831,12 +24831,12 @@
       <c r="G21" s="133"/>
       <c r="H21" s="133"/>
       <c r="I21" s="133" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="143" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B23" s="143" t="str">
         <f>A23</f>
@@ -24858,7 +24858,7 @@
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
       <c r="I23" s="133" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -25238,13 +25238,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="131" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B14" s="139" t="s">
         <v>170</v>
       </c>
       <c r="C14" s="131" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="D14" s="131">
         <v>133</v>
@@ -25265,13 +25265,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="131" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B15" s="139" t="s">
         <v>170</v>
       </c>
       <c r="C15" s="131" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="D15" s="131">
         <v>133</v>
@@ -25292,13 +25292,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="131" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B16" s="139" t="s">
         <v>170</v>
       </c>
       <c r="C16" s="131" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D16" s="131">
         <v>168</v>
@@ -27340,10 +27340,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="133" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B54" s="141" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C54" s="133">
         <v>128</v>
@@ -27377,10 +27377,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="133" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B55" s="141" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C55" s="133">
         <v>128</v>
@@ -27414,10 +27414,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="133" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B56" s="141" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C56" s="133">
         <v>127</v>
@@ -27451,10 +27451,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="133" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B57" s="141" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C57" s="133">
         <v>127</v>
@@ -27488,10 +27488,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="133" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B58" s="141" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="C58" s="133">
         <v>162</v>
@@ -27525,10 +27525,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="133" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B59" s="141" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="C59" s="133">
         <v>162</v>
@@ -27933,7 +27933,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1938DC31-1F11-4851-B2B6-FDE58FC2597A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A114510-0A2D-4B5A-8A56-C41654AEEAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="1410" windowWidth="25970" windowHeight="18390" tabRatio="615" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="1410" windowWidth="25970" windowHeight="18390" tabRatio="615" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" state="hidden" r:id="rId1"/>
@@ -25,10 +25,10 @@
     <sheet name="Motors" sheetId="5" r:id="rId10"/>
     <sheet name="Chaindrive" sheetId="11" state="hidden" r:id="rId11"/>
     <sheet name="Chain" sheetId="15" state="hidden" r:id="rId12"/>
-    <sheet name="Bearings" sheetId="10" state="hidden" r:id="rId13"/>
+    <sheet name="Bearings" sheetId="10" r:id="rId13"/>
     <sheet name="SafetyB" sheetId="8" r:id="rId14"/>
     <sheet name="Endplate" sheetId="13" r:id="rId15"/>
-    <sheet name="Wicket doors" sheetId="14" state="hidden" r:id="rId16"/>
+    <sheet name="Wicket doors" sheetId="14" r:id="rId16"/>
     <sheet name="Size range" sheetId="19" state="hidden" r:id="rId17"/>
   </sheets>
   <definedNames>
@@ -21576,7 +21576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5897A5-8278-44A3-89B0-43E5A8B043EB}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -22511,7 +22511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
   <dimension ref="A1:R171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R6" sqref="R6:R16"/>
     </sheetView>

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A114510-0A2D-4B5A-8A56-C41654AEEAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ED431B-A8DB-4722-A23F-C26B940EDBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="1410" windowWidth="25970" windowHeight="18390" tabRatio="615" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="1410" windowWidth="25970" windowHeight="18390" tabRatio="615" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" state="hidden" r:id="rId1"/>
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="603">
   <si>
     <t>This over view explaines the working of this file and how it feeds information to the online calculator.</t>
   </si>
@@ -21576,7 +21576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5897A5-8278-44A3-89B0-43E5A8B043EB}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -23541,7 +23541,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23759,7 +23759,9 @@
       <c r="O5" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="143"/>
+      <c r="P5" s="5" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="143" t="s">
@@ -23808,7 +23810,9 @@
       <c r="O6" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="143"/>
+      <c r="P6" s="5" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="143" t="s">
@@ -23857,7 +23861,9 @@
       <c r="O7" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="143"/>
+      <c r="P7" s="5" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D8" s="153"/>
@@ -24196,7 +24202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A45B228-839B-4CA5-9448-9CA1774CB22C}">
   <dimension ref="B1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ED431B-A8DB-4722-A23F-C26B940EDBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30FE335-C2D5-454C-8172-6F0A504CF664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="1410" windowWidth="25970" windowHeight="18390" tabRatio="615" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="1410" windowWidth="25970" windowHeight="18390" tabRatio="615" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" state="hidden" r:id="rId1"/>
@@ -89,40 +89,6 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>robert hyrons</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{42B2D1D3-45D6-4B4F-92A5-C86E44261C2E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>robert hyrons:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-use this data column to match the max lift torque required to spec SB, advised from GFA UK 27/1/2026</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>robert hyrons</author>
@@ -209,112 +175,6 @@
     <author>robert hyrons</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{8AFF65BF-FD04-48FC-AEF5-AA10EB222939}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>robert hyrons:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-if curtain build by lath is selected then this information is used to calculate total curtain weight</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{AA48177C-8E33-49A4-9144-CFAA2A78F965}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>robert hyrons:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This is the compressed lath height of one lath sitting on another. No adjustment of guide width if lath are not truly vertical. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{9F128C17-0597-4AB5-9319-1AD134C86858}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>robert hyrons:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-this is the height including quirk lift when the curtain is lifting, to calculate the roll diameter</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{CD83C146-519E-4D93-A49C-77C95D0C2637}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>robert hyrons:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-this is the effective thickness to calculate the roll diameter</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>robert hyrons</author>
-  </authors>
-  <commentList>
     <comment ref="F1" authorId="0" shapeId="0" xr:uid="{2C9B7025-8986-4E9D-B882-6667505A4E88}">
       <text>
         <r>
@@ -367,7 +227,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Rob Hyrons</author>
@@ -426,7 +286,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>robert hyrons</author>
@@ -461,7 +321,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>robert hyrons</author>
@@ -495,7 +355,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>robert hyrons</author>
@@ -678,7 +538,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>robert hyrons</author>
@@ -737,7 +597,7 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>robert hyrons</author>
@@ -764,6 +624,40 @@
           </rPr>
           <t xml:space="preserve">
 needs confirming with supplier</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>robert hyrons</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{42B2D1D3-45D6-4B4F-92A5-C86E44261C2E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>robert hyrons:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+use this data column to match the max lift torque required to spec SB, advised from GFA UK 27/1/2026</t>
         </r>
       </text>
     </comment>
@@ -864,7 +758,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="604">
   <si>
     <t>This over view explaines the working of this file and how it feeds information to the online calculator.</t>
   </si>
@@ -2673,6 +2567,9 @@
   </si>
   <si>
     <t xml:space="preserve">110mm 10 10 microperforated </t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -9751,7 +9648,7 @@
   <dimension ref="A1:V159"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -20196,8 +20093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0484E2-9992-4491-920F-B8AE57D8A0EE}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:H19"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20706,8 +20603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63386739-1836-4135-BDCC-F0CD02A919B6}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21307,7 +21204,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" ref="F30:F35" si="4">B30-50</f>
+        <f t="shared" ref="F30:F42" si="4">B30-50</f>
         <v>85</v>
       </c>
       <c r="G30" s="5">
@@ -21434,6 +21331,9 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F36" s="5"/>
+    </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="151" t="s">
         <v>585</v>
@@ -21444,13 +21344,16 @@
       <c r="C37" s="133">
         <v>450</v>
       </c>
-      <c r="D37" s="133" t="s">
-        <v>129</v>
+      <c r="D37" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E37" s="133">
         <v>3</v>
       </c>
-      <c r="F37" s="133"/>
+      <c r="F37" s="5">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
       <c r="G37" s="133">
         <v>0</v>
       </c>
@@ -21465,13 +21368,16 @@
       <c r="C38" s="133">
         <v>450</v>
       </c>
-      <c r="D38" s="133" t="s">
-        <v>129</v>
+      <c r="D38" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E38" s="133">
         <v>3</v>
       </c>
-      <c r="F38" s="133"/>
+      <c r="F38" s="5">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
       <c r="G38" s="133">
         <v>0</v>
       </c>
@@ -21486,13 +21392,16 @@
       <c r="C39" s="133">
         <v>450</v>
       </c>
-      <c r="D39" s="133" t="s">
-        <v>129</v>
+      <c r="D39" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E39" s="133">
         <v>3</v>
       </c>
-      <c r="F39" s="133"/>
+      <c r="F39" s="5">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
       <c r="G39" s="133">
         <v>0</v>
       </c>
@@ -21507,13 +21416,16 @@
       <c r="C40" s="133">
         <v>450</v>
       </c>
-      <c r="D40" s="133" t="s">
-        <v>129</v>
+      <c r="D40" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E40" s="133">
         <v>3</v>
       </c>
-      <c r="F40" s="133"/>
+      <c r="F40" s="5">
+        <f t="shared" si="4"/>
+        <v>320</v>
+      </c>
       <c r="G40" s="133">
         <v>0</v>
       </c>
@@ -21528,13 +21440,16 @@
       <c r="C41" s="133">
         <v>450</v>
       </c>
-      <c r="D41" s="133" t="s">
-        <v>129</v>
+      <c r="D41" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E41" s="133">
         <v>3</v>
       </c>
-      <c r="F41" s="133"/>
+      <c r="F41" s="5">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
       <c r="G41" s="133">
         <v>0</v>
       </c>
@@ -21549,13 +21464,16 @@
       <c r="C42" s="133">
         <v>450</v>
       </c>
-      <c r="D42" s="133" t="s">
+      <c r="D42" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E42" s="133">
         <v>3</v>
       </c>
-      <c r="F42" s="133"/>
+      <c r="F42" s="5">
+        <f t="shared" si="4"/>
+        <v>390</v>
+      </c>
       <c r="G42" s="133">
         <v>0</v>
       </c>
@@ -22508,7 +22426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
   <dimension ref="A1:R171"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -23532,7 +23450,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -24202,8 +24119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A45B228-839B-4CA5-9448-9CA1774CB22C}">
   <dimension ref="B1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25335,8 +25252,8 @@
   <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27369,7 +27286,9 @@
       </c>
       <c r="H54" s="143"/>
       <c r="I54" s="143"/>
-      <c r="J54" s="143"/>
+      <c r="J54" s="143" t="s">
+        <v>603</v>
+      </c>
       <c r="K54" s="143"/>
       <c r="L54" s="143">
         <f t="shared" si="1"/>
@@ -27406,7 +27325,9 @@
       </c>
       <c r="H55" s="143"/>
       <c r="I55" s="143"/>
-      <c r="J55" s="143"/>
+      <c r="J55" s="143" t="s">
+        <v>603</v>
+      </c>
       <c r="K55" s="143"/>
       <c r="L55" s="143">
         <f t="shared" si="1"/>
@@ -27443,7 +27364,9 @@
       </c>
       <c r="H56" s="143"/>
       <c r="I56" s="143"/>
-      <c r="J56" s="143"/>
+      <c r="J56" s="143" t="s">
+        <v>603</v>
+      </c>
       <c r="K56" s="143"/>
       <c r="L56" s="143">
         <f t="shared" si="1"/>
@@ -27480,7 +27403,9 @@
       </c>
       <c r="H57" s="143"/>
       <c r="I57" s="143"/>
-      <c r="J57" s="143"/>
+      <c r="J57" s="143" t="s">
+        <v>603</v>
+      </c>
       <c r="K57" s="143"/>
       <c r="L57" s="143">
         <f t="shared" si="1"/>
@@ -27517,7 +27442,9 @@
       </c>
       <c r="H58" s="143"/>
       <c r="I58" s="143"/>
-      <c r="J58" s="143"/>
+      <c r="J58" s="143" t="s">
+        <v>603</v>
+      </c>
       <c r="K58" s="143"/>
       <c r="L58" s="143">
         <f t="shared" si="1"/>
@@ -27554,7 +27481,9 @@
       </c>
       <c r="H59" s="143"/>
       <c r="I59" s="143"/>
-      <c r="J59" s="143"/>
+      <c r="J59" s="143" t="s">
+        <v>603</v>
+      </c>
       <c r="K59" s="143"/>
       <c r="L59" s="143">
         <f t="shared" si="1"/>

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30FE335-C2D5-454C-8172-6F0A504CF664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED7A19F-634A-4537-96EC-2320301A4E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="1410" windowWidth="25970" windowHeight="18390" tabRatio="615" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11430" yWindow="1410" windowWidth="25970" windowHeight="18390" tabRatio="615" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" state="hidden" r:id="rId1"/>
@@ -758,7 +758,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="603">
   <si>
     <t>This over view explaines the working of this file and how it feeds information to the online calculator.</t>
   </si>
@@ -2426,9 +2426,6 @@
   </si>
   <si>
     <t>Murax</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>110mm</t>
@@ -2988,7 +2985,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3350,7 +3347,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3365,9 +3361,6 @@
     </xf>
     <xf numFmtId="2" fontId="24" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3415,7 +3408,6 @@
     <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3425,7 +3417,6 @@
     <xf numFmtId="2" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3440,6 +3431,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{4B6C72F7-C4CA-450E-9C13-94CEF72F8B8D}"/>
@@ -10190,8 +10191,8 @@
       <c r="M11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="146" t="s">
-        <v>581</v>
+      <c r="N11" s="144" t="s">
+        <v>580</v>
       </c>
       <c r="O11" s="5">
         <v>15</v>
@@ -10252,294 +10253,294 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="144" t="s">
-        <v>570</v>
-      </c>
-      <c r="B13" s="144" t="s">
+      <c r="A13" s="142" t="s">
+        <v>569</v>
+      </c>
+      <c r="B13" s="142" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="141">
+      <c r="C13" s="139">
         <v>0.01</v>
       </c>
-      <c r="D13" s="141">
+      <c r="D13" s="139">
         <v>150</v>
       </c>
-      <c r="E13" s="141" t="s">
+      <c r="E13" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="141">
+      <c r="F13" s="139">
         <v>8</v>
       </c>
-      <c r="G13" s="141">
+      <c r="G13" s="139">
         <v>230</v>
       </c>
-      <c r="H13" s="141" t="s">
+      <c r="H13" s="139" t="s">
         <v>215</v>
       </c>
-      <c r="I13" s="141">
+      <c r="I13" s="139">
         <v>69</v>
       </c>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141">
+      <c r="J13" s="139"/>
+      <c r="K13" s="139">
         <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="M13" s="141" t="s">
+      <c r="M13" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="141" t="s">
+      <c r="N13" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="133">
+      <c r="O13" s="132">
         <v>17</v>
       </c>
-      <c r="P13" s="141"/>
+      <c r="P13" s="139"/>
       <c r="Q13" s="53">
         <v>12</v>
       </c>
-      <c r="R13" s="133">
+      <c r="R13" s="132">
         <v>500</v>
       </c>
-      <c r="S13" s="133"/>
-      <c r="T13" s="133" t="e" vm="4">
+      <c r="S13" s="132"/>
+      <c r="T13" s="132" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="U13" s="145"/>
-      <c r="V13" s="143"/>
+      <c r="U13" s="143"/>
+      <c r="V13" s="141"/>
     </row>
     <row r="14" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="144" t="s">
-        <v>577</v>
-      </c>
-      <c r="B14" s="144" t="s">
+      <c r="A14" s="142" t="s">
+        <v>576</v>
+      </c>
+      <c r="B14" s="142" t="s">
         <v>226</v>
       </c>
-      <c r="C14" s="141">
+      <c r="C14" s="139">
         <v>150.01</v>
       </c>
-      <c r="D14" s="141">
+      <c r="D14" s="139">
         <v>200</v>
       </c>
-      <c r="E14" s="141" t="s">
+      <c r="E14" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="F14" s="141">
+      <c r="F14" s="139">
         <v>8</v>
       </c>
-      <c r="G14" s="141">
+      <c r="G14" s="139">
         <v>230</v>
       </c>
-      <c r="H14" s="141" t="s">
+      <c r="H14" s="139" t="s">
         <v>215</v>
       </c>
-      <c r="I14" s="141">
+      <c r="I14" s="139">
         <v>69</v>
       </c>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141">
+      <c r="J14" s="139"/>
+      <c r="K14" s="139">
         <v>80</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="M14" s="141" t="s">
+      <c r="M14" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="141" t="s">
+      <c r="N14" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="133">
+      <c r="O14" s="132">
         <v>17</v>
       </c>
-      <c r="P14" s="141"/>
+      <c r="P14" s="139"/>
       <c r="Q14" s="53">
         <v>13.4</v>
       </c>
-      <c r="R14" s="133">
+      <c r="R14" s="132">
         <v>620</v>
       </c>
-      <c r="S14" s="133"/>
-      <c r="T14" s="133" t="e" vm="4">
+      <c r="S14" s="132"/>
+      <c r="T14" s="132" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="U14" s="145"/>
-      <c r="V14" s="143"/>
+      <c r="U14" s="143"/>
+      <c r="V14" s="141"/>
     </row>
     <row r="15" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="144" t="s">
-        <v>578</v>
-      </c>
-      <c r="B15" s="144" t="s">
+      <c r="A15" s="142" t="s">
+        <v>577</v>
+      </c>
+      <c r="B15" s="142" t="s">
         <v>226</v>
       </c>
-      <c r="C15" s="141">
+      <c r="C15" s="139">
         <v>200.01</v>
       </c>
-      <c r="D15" s="141">
+      <c r="D15" s="139">
         <v>250</v>
       </c>
-      <c r="E15" s="141" t="s">
+      <c r="E15" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="141">
+      <c r="F15" s="139">
         <v>8</v>
       </c>
-      <c r="G15" s="141">
+      <c r="G15" s="139">
         <v>230</v>
       </c>
-      <c r="H15" s="141" t="s">
+      <c r="H15" s="139" t="s">
         <v>215</v>
       </c>
-      <c r="I15" s="141">
+      <c r="I15" s="139">
         <v>69</v>
       </c>
-      <c r="J15" s="141"/>
-      <c r="K15" s="141">
+      <c r="J15" s="139"/>
+      <c r="K15" s="139">
         <v>80</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="M15" s="141" t="s">
+      <c r="M15" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="141" t="s">
+      <c r="N15" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="133">
+      <c r="O15" s="132">
         <v>21</v>
       </c>
-      <c r="P15" s="141"/>
+      <c r="P15" s="139"/>
       <c r="Q15" s="53">
         <v>14</v>
       </c>
-      <c r="R15" s="133">
+      <c r="R15" s="132">
         <v>680</v>
       </c>
-      <c r="S15" s="133"/>
-      <c r="T15" s="133" t="e" vm="4">
+      <c r="S15" s="132"/>
+      <c r="T15" s="132" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="U15" s="145"/>
-      <c r="V15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="141"/>
     </row>
     <row r="16" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="144" t="s">
-        <v>579</v>
-      </c>
-      <c r="B16" s="144" t="s">
+      <c r="A16" s="142" t="s">
+        <v>578</v>
+      </c>
+      <c r="B16" s="142" t="s">
         <v>226</v>
       </c>
-      <c r="C16" s="141">
+      <c r="C16" s="139">
         <v>250.01</v>
       </c>
-      <c r="D16" s="141">
+      <c r="D16" s="139">
         <v>300</v>
       </c>
-      <c r="E16" s="141" t="s">
+      <c r="E16" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="141">
+      <c r="F16" s="139">
         <v>8</v>
       </c>
-      <c r="G16" s="141">
+      <c r="G16" s="139">
         <v>230</v>
       </c>
-      <c r="H16" s="141" t="s">
+      <c r="H16" s="139" t="s">
         <v>215</v>
       </c>
-      <c r="I16" s="141">
+      <c r="I16" s="139">
         <v>68</v>
       </c>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141">
+      <c r="J16" s="139"/>
+      <c r="K16" s="139">
         <v>89</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="M16" s="141" t="s">
+      <c r="M16" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="141" t="s">
+      <c r="N16" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="133">
+      <c r="O16" s="132">
         <v>17</v>
       </c>
-      <c r="P16" s="141"/>
+      <c r="P16" s="139"/>
       <c r="Q16" s="53">
         <v>13.3</v>
       </c>
-      <c r="R16" s="133">
+      <c r="R16" s="132">
         <v>855</v>
       </c>
-      <c r="S16" s="133"/>
-      <c r="T16" s="133" t="e" vm="4">
+      <c r="S16" s="132"/>
+      <c r="T16" s="132" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="U16" s="145"/>
-      <c r="V16" s="143"/>
+      <c r="U16" s="143"/>
+      <c r="V16" s="141"/>
     </row>
     <row r="17" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="144" t="s">
-        <v>580</v>
-      </c>
-      <c r="B17" s="144" t="s">
+      <c r="A17" s="142" t="s">
+        <v>579</v>
+      </c>
+      <c r="B17" s="142" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="141">
+      <c r="C17" s="139">
         <v>300.01</v>
       </c>
-      <c r="D17" s="141">
+      <c r="D17" s="139">
         <v>350</v>
       </c>
-      <c r="E17" s="141" t="s">
+      <c r="E17" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="141">
+      <c r="F17" s="139">
         <v>8</v>
       </c>
-      <c r="G17" s="141">
+      <c r="G17" s="139">
         <v>230</v>
       </c>
-      <c r="H17" s="141" t="s">
+      <c r="H17" s="139" t="s">
         <v>215</v>
       </c>
-      <c r="I17" s="141">
+      <c r="I17" s="139">
         <v>85</v>
       </c>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141">
+      <c r="J17" s="139"/>
+      <c r="K17" s="139">
         <v>89</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="M17" s="141" t="s">
+      <c r="M17" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="141" t="s">
+      <c r="N17" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="133">
+      <c r="O17" s="132">
         <v>15</v>
       </c>
-      <c r="P17" s="141"/>
+      <c r="P17" s="139"/>
       <c r="Q17" s="53">
         <v>19.600000000000001</v>
       </c>
-      <c r="R17" s="133">
+      <c r="R17" s="132">
         <v>990</v>
       </c>
-      <c r="S17" s="133"/>
-      <c r="T17" s="133" t="e" vm="4">
+      <c r="S17" s="132"/>
+      <c r="T17" s="132" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="U17" s="145"/>
-      <c r="V17" s="143"/>
+      <c r="U17" s="143"/>
+      <c r="V17" s="141"/>
     </row>
     <row r="18" spans="1:22" s="99" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="96" t="s">
@@ -19477,19 +19478,19 @@
       <c r="X55" s="70"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="H60" s="165" t="s">
+      <c r="H60" s="161" t="s">
         <v>490</v>
       </c>
-      <c r="I60" s="165"/>
-      <c r="J60" s="165"/>
-      <c r="K60" s="165"/>
-      <c r="L60" s="165"/>
-      <c r="M60" s="165"/>
-      <c r="N60" s="165"/>
-      <c r="O60" s="165"/>
-      <c r="P60" s="165"/>
-      <c r="Q60" s="165"/>
-      <c r="R60" s="165"/>
+      <c r="I60" s="161"/>
+      <c r="J60" s="161"/>
+      <c r="K60" s="161"/>
+      <c r="L60" s="161"/>
+      <c r="M60" s="161"/>
+      <c r="N60" s="161"/>
+      <c r="O60" s="161"/>
+      <c r="P60" s="161"/>
+      <c r="Q60" s="161"/>
+      <c r="R60" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -20512,52 +20513,52 @@
       <c r="G17" s="74"/>
     </row>
     <row r="18" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="149" t="s">
+      <c r="A18" s="147" t="s">
+        <v>581</v>
+      </c>
+      <c r="B18" s="132">
+        <v>368</v>
+      </c>
+      <c r="C18" s="132">
+        <v>1444</v>
+      </c>
+      <c r="D18" s="132">
+        <v>22</v>
+      </c>
+      <c r="E18" s="148" t="s">
+        <v>583</v>
+      </c>
+      <c r="F18" s="141"/>
+      <c r="G18" s="132">
+        <v>30</v>
+      </c>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="147" t="s">
         <v>582</v>
       </c>
-      <c r="B18" s="133">
-        <v>368</v>
-      </c>
-      <c r="C18" s="133">
-        <v>1444</v>
-      </c>
-      <c r="D18" s="133">
+      <c r="B19" s="132">
+        <v>650</v>
+      </c>
+      <c r="C19" s="132">
+        <v>2058</v>
+      </c>
+      <c r="D19" s="132">
         <v>22</v>
       </c>
-      <c r="E18" s="150" t="s">
-        <v>584</v>
-      </c>
-      <c r="F18" s="143"/>
-      <c r="G18" s="133">
-        <v>30</v>
-      </c>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="149" t="s">
+      <c r="E19" s="148" t="s">
         <v>583</v>
       </c>
-      <c r="B19" s="133">
-        <v>650</v>
-      </c>
-      <c r="C19" s="133">
-        <v>2058</v>
-      </c>
-      <c r="D19" s="133">
-        <v>22</v>
-      </c>
-      <c r="E19" s="150" t="s">
-        <v>584</v>
-      </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="133">
+      <c r="F19" s="141"/>
+      <c r="G19" s="132">
         <v>40</v>
       </c>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143" t="e" vm="8">
+      <c r="H19" s="141"/>
+      <c r="I19" s="141" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -20603,8 +20604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63386739-1836-4135-BDCC-F0CD02A919B6}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37:F42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21335,152 +21336,152 @@
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="151" t="s">
-        <v>585</v>
-      </c>
-      <c r="B37" s="133">
+      <c r="A37" s="149" t="s">
+        <v>584</v>
+      </c>
+      <c r="B37" s="132">
         <v>280</v>
       </c>
-      <c r="C37" s="133">
+      <c r="C37" s="132">
         <v>450</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="133">
+      <c r="E37" s="132">
         <v>3</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="108">
         <f t="shared" si="4"/>
         <v>230</v>
       </c>
-      <c r="G37" s="133">
+      <c r="G37" s="132">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="151" t="s">
-        <v>586</v>
-      </c>
-      <c r="B38" s="133">
+      <c r="A38" s="149" t="s">
+        <v>585</v>
+      </c>
+      <c r="B38" s="132">
         <v>310</v>
       </c>
-      <c r="C38" s="133">
+      <c r="C38" s="132">
         <v>450</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="133">
+      <c r="E38" s="132">
         <v>3</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="108">
         <f t="shared" si="4"/>
         <v>260</v>
       </c>
-      <c r="G38" s="133">
+      <c r="G38" s="132">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="151" t="s">
-        <v>587</v>
-      </c>
-      <c r="B39" s="133">
+      <c r="A39" s="149" t="s">
+        <v>586</v>
+      </c>
+      <c r="B39" s="132">
         <v>340</v>
       </c>
-      <c r="C39" s="133">
+      <c r="C39" s="132">
         <v>450</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="133">
+      <c r="E39" s="132">
         <v>3</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="108">
         <f t="shared" si="4"/>
         <v>290</v>
       </c>
-      <c r="G39" s="133">
+      <c r="G39" s="132">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="151" t="s">
-        <v>588</v>
-      </c>
-      <c r="B40" s="133">
+      <c r="A40" s="149" t="s">
+        <v>587</v>
+      </c>
+      <c r="B40" s="132">
         <v>370</v>
       </c>
-      <c r="C40" s="133">
+      <c r="C40" s="132">
         <v>450</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="133">
+      <c r="E40" s="132">
         <v>3</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="108">
         <f t="shared" si="4"/>
         <v>320</v>
       </c>
-      <c r="G40" s="133">
+      <c r="G40" s="132">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="151" t="s">
-        <v>589</v>
-      </c>
-      <c r="B41" s="133">
+      <c r="A41" s="149" t="s">
+        <v>588</v>
+      </c>
+      <c r="B41" s="132">
         <v>400</v>
       </c>
-      <c r="C41" s="133">
+      <c r="C41" s="132">
         <v>450</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="133">
+      <c r="E41" s="132">
         <v>3</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="108">
         <f t="shared" si="4"/>
         <v>350</v>
       </c>
-      <c r="G41" s="133">
+      <c r="G41" s="132">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="151" t="s">
-        <v>590</v>
-      </c>
-      <c r="B42" s="133">
+      <c r="A42" s="149" t="s">
+        <v>589</v>
+      </c>
+      <c r="B42" s="132">
         <v>440</v>
       </c>
-      <c r="C42" s="133">
+      <c r="C42" s="132">
         <v>450</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="133">
+      <c r="E42" s="132">
         <v>3</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="108">
         <f t="shared" si="4"/>
         <v>390</v>
       </c>
-      <c r="G42" s="133">
+      <c r="G42" s="132">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C44" s="164" t="s">
-        <v>595</v>
+      <c r="C44" s="160" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -21564,14 +21565,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="161" t="s">
         <v>481</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -22429,9 +22430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
   <dimension ref="A1:R171"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R6" sqref="R6:R16"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22702,8 +22703,8 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>596</v>
+      <c r="A6" s="166" t="s">
+        <v>595</v>
       </c>
       <c r="B6">
         <v>7.1090909090909102</v>
@@ -22720,7 +22721,7 @@
       <c r="F6" s="128">
         <v>18</v>
       </c>
-      <c r="G6" s="134">
+      <c r="G6" s="133">
         <v>20</v>
       </c>
       <c r="H6" s="128">
@@ -22751,39 +22752,39 @@
         <v>29</v>
       </c>
       <c r="R6" s="125" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="130" t="s">
-        <v>597</v>
+      <c r="A7" s="167" t="s">
+        <v>596</v>
       </c>
       <c r="B7">
         <v>9.4181818181818198</v>
       </c>
-      <c r="C7" s="132">
+      <c r="C7" s="131">
         <v>1.036</v>
       </c>
-      <c r="D7" s="131">
+      <c r="D7" s="130">
         <v>110</v>
       </c>
-      <c r="E7" s="131">
+      <c r="E7" s="130">
         <v>112</v>
       </c>
-      <c r="F7" s="131">
+      <c r="F7" s="130">
         <v>18</v>
       </c>
-      <c r="G7" s="135">
+      <c r="G7" s="134">
         <v>20</v>
       </c>
-      <c r="H7" s="131">
+      <c r="H7" s="130">
         <v>6000</v>
       </c>
-      <c r="I7" s="133">
+      <c r="I7" s="132">
         <v>133</v>
       </c>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133">
+      <c r="J7" s="132"/>
+      <c r="K7" s="132">
         <v>0</v>
       </c>
       <c r="L7" t="e" vm="1">
@@ -22805,12 +22806,12 @@
         <v>29</v>
       </c>
       <c r="R7" s="125" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>598</v>
+      <c r="A8" s="166" t="s">
+        <v>597</v>
       </c>
       <c r="B8">
         <v>11.772727272727273</v>
@@ -22827,7 +22828,7 @@
       <c r="F8" s="128">
         <v>18</v>
       </c>
-      <c r="G8" s="134">
+      <c r="G8" s="133">
         <v>20</v>
       </c>
       <c r="H8" s="128">
@@ -22858,39 +22859,39 @@
         <v>29</v>
       </c>
       <c r="R8" s="125" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="130" t="s">
-        <v>599</v>
+      <c r="A9" s="167" t="s">
+        <v>598</v>
       </c>
       <c r="B9">
         <v>14.127272727272729</v>
       </c>
-      <c r="C9" s="132">
+      <c r="C9" s="131">
         <v>1.554</v>
       </c>
-      <c r="D9" s="131">
+      <c r="D9" s="130">
         <v>110</v>
       </c>
-      <c r="E9" s="131">
+      <c r="E9" s="130">
         <v>112</v>
       </c>
-      <c r="F9" s="131">
+      <c r="F9" s="130">
         <v>18</v>
       </c>
-      <c r="G9" s="135">
+      <c r="G9" s="134">
         <v>20</v>
       </c>
-      <c r="H9" s="131">
+      <c r="H9" s="130">
         <v>13500</v>
       </c>
-      <c r="I9" s="133">
+      <c r="I9" s="132">
         <v>133</v>
       </c>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133">
+      <c r="J9" s="132"/>
+      <c r="K9" s="132">
         <v>0</v>
       </c>
       <c r="L9" t="e" vm="1">
@@ -22912,12 +22913,12 @@
         <v>29</v>
       </c>
       <c r="R9" s="125" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>596</v>
+      <c r="A10" s="166" t="s">
+        <v>595</v>
       </c>
       <c r="B10">
         <v>7.1090909090909102</v>
@@ -22934,7 +22935,7 @@
       <c r="F10" s="128">
         <v>18</v>
       </c>
-      <c r="G10" s="134">
+      <c r="G10" s="133">
         <v>20</v>
       </c>
       <c r="H10" s="128">
@@ -22949,8 +22950,8 @@
       <c r="L10" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>556</v>
+      <c r="M10" s="108" t="s">
+        <v>20</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>21</v>
@@ -22965,46 +22966,46 @@
         <v>29</v>
       </c>
       <c r="R10" s="125" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="130" t="s">
-        <v>597</v>
+      <c r="A11" s="167" t="s">
+        <v>596</v>
       </c>
       <c r="B11">
         <v>9.4181818181818198</v>
       </c>
-      <c r="C11" s="132">
+      <c r="C11" s="131">
         <v>1.036</v>
       </c>
-      <c r="D11" s="131">
+      <c r="D11" s="130">
         <v>110</v>
       </c>
-      <c r="E11" s="131">
+      <c r="E11" s="130">
         <v>112</v>
       </c>
-      <c r="F11" s="131">
+      <c r="F11" s="130">
         <v>18</v>
       </c>
-      <c r="G11" s="135">
+      <c r="G11" s="134">
         <v>20</v>
       </c>
-      <c r="H11" s="131">
+      <c r="H11" s="130">
         <v>6000</v>
       </c>
-      <c r="I11" s="133">
+      <c r="I11" s="132">
         <v>133</v>
       </c>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133">
+      <c r="J11" s="132"/>
+      <c r="K11" s="132">
         <v>0</v>
       </c>
       <c r="L11" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>556</v>
+      <c r="M11" s="108" t="s">
+        <v>20</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>21</v>
@@ -23019,12 +23020,12 @@
         <v>29</v>
       </c>
       <c r="R11" s="125" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>598</v>
+      <c r="A12" s="166" t="s">
+        <v>597</v>
       </c>
       <c r="B12">
         <v>11.772727272727273</v>
@@ -23041,7 +23042,7 @@
       <c r="F12" s="128">
         <v>18</v>
       </c>
-      <c r="G12" s="134">
+      <c r="G12" s="133">
         <v>20</v>
       </c>
       <c r="H12" s="128">
@@ -23056,8 +23057,8 @@
       <c r="L12" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>556</v>
+      <c r="M12" s="108" t="s">
+        <v>20</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>21</v>
@@ -23072,46 +23073,46 @@
         <v>29</v>
       </c>
       <c r="R12" s="125" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="130" t="s">
-        <v>599</v>
+      <c r="A13" s="167" t="s">
+        <v>598</v>
       </c>
       <c r="B13">
         <v>14.127272727272729</v>
       </c>
-      <c r="C13" s="132">
+      <c r="C13" s="131">
         <v>1.554</v>
       </c>
-      <c r="D13" s="131">
+      <c r="D13" s="130">
         <v>110</v>
       </c>
-      <c r="E13" s="131">
+      <c r="E13" s="130">
         <v>112</v>
       </c>
-      <c r="F13" s="131">
+      <c r="F13" s="130">
         <v>18</v>
       </c>
-      <c r="G13" s="135">
+      <c r="G13" s="134">
         <v>20</v>
       </c>
-      <c r="H13" s="131">
+      <c r="H13" s="130">
         <v>13500</v>
       </c>
-      <c r="I13" s="133">
+      <c r="I13" s="132">
         <v>133</v>
       </c>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133">
+      <c r="J13" s="132"/>
+      <c r="K13" s="132">
         <v>0</v>
       </c>
       <c r="L13" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>556</v>
+      <c r="M13" s="108" t="s">
+        <v>20</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>21</v>
@@ -23126,46 +23127,46 @@
         <v>29</v>
       </c>
       <c r="R13" s="125" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="155" t="s">
-        <v>600</v>
+      <c r="A14" s="168" t="s">
+        <v>599</v>
       </c>
       <c r="B14">
         <v>5.5909090909090917</v>
       </c>
-      <c r="C14" s="157">
+      <c r="C14" s="154">
         <v>0.61499999999999999</v>
       </c>
-      <c r="D14" s="156">
+      <c r="D14" s="153">
         <v>110</v>
       </c>
-      <c r="E14" s="156">
+      <c r="E14" s="153">
         <v>112</v>
       </c>
-      <c r="F14" s="156">
+      <c r="F14" s="153">
         <v>18</v>
       </c>
-      <c r="G14" s="158">
+      <c r="G14" s="155">
         <v>20</v>
       </c>
-      <c r="H14" s="156">
+      <c r="H14" s="153">
         <v>4500</v>
       </c>
-      <c r="I14" s="152">
+      <c r="I14" s="150">
         <v>133</v>
       </c>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152">
+      <c r="J14" s="150"/>
+      <c r="K14" s="150">
         <v>33</v>
       </c>
       <c r="L14" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>556</v>
+      <c r="M14" s="108" t="s">
+        <v>20</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>21</v>
@@ -23180,46 +23181,46 @@
         <v>29</v>
       </c>
       <c r="R14" s="125" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="159" t="s">
-        <v>601</v>
+      <c r="A15" s="169" t="s">
+        <v>600</v>
       </c>
       <c r="B15">
         <v>7.4</v>
       </c>
-      <c r="C15" s="132">
+      <c r="C15" s="131">
         <v>0.81399999999999995</v>
       </c>
-      <c r="D15" s="160">
+      <c r="D15" s="156">
         <v>110</v>
       </c>
-      <c r="E15" s="160">
+      <c r="E15" s="156">
         <v>112</v>
       </c>
-      <c r="F15" s="160">
+      <c r="F15" s="156">
         <v>18</v>
       </c>
-      <c r="G15" s="161">
+      <c r="G15" s="157">
         <v>20</v>
       </c>
-      <c r="H15" s="160">
+      <c r="H15" s="156">
         <v>6000</v>
       </c>
-      <c r="I15" s="147">
+      <c r="I15" s="145">
         <v>133</v>
       </c>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147">
+      <c r="J15" s="145"/>
+      <c r="K15" s="145">
         <v>33</v>
       </c>
       <c r="L15" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>556</v>
+      <c r="M15" s="108" t="s">
+        <v>20</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>21</v>
@@ -23234,46 +23235,46 @@
         <v>29</v>
       </c>
       <c r="R15" s="125" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="155" t="s">
-        <v>602</v>
+      <c r="A16" s="168" t="s">
+        <v>601</v>
       </c>
       <c r="B16">
         <v>9.2545454545454557</v>
       </c>
-      <c r="C16" s="157">
+      <c r="C16" s="154">
         <v>1.018</v>
       </c>
-      <c r="D16" s="156">
+      <c r="D16" s="153">
         <v>110</v>
       </c>
-      <c r="E16" s="156">
+      <c r="E16" s="153">
         <v>112</v>
       </c>
-      <c r="F16" s="156">
+      <c r="F16" s="153">
         <v>18</v>
       </c>
-      <c r="G16" s="158">
+      <c r="G16" s="155">
         <v>20</v>
       </c>
-      <c r="H16" s="156">
+      <c r="H16" s="153">
         <v>1200</v>
       </c>
-      <c r="I16" s="152">
+      <c r="I16" s="150">
         <v>133</v>
       </c>
-      <c r="J16" s="152"/>
-      <c r="K16" s="152">
+      <c r="J16" s="150"/>
+      <c r="K16" s="150">
         <v>33</v>
       </c>
       <c r="L16" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>556</v>
+      <c r="M16" s="108" t="s">
+        <v>20</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>21</v>
@@ -23288,7 +23289,7 @@
         <v>29</v>
       </c>
       <c r="R16" s="125" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -23458,7 +23459,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23484,7 +23485,7 @@
       <c r="C1" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="154" t="s">
+      <c r="D1" s="152" t="s">
         <v>137</v>
       </c>
       <c r="E1" s="121" t="s">
@@ -23496,8 +23497,8 @@
       <c r="G1" s="126" t="s">
         <v>511</v>
       </c>
-      <c r="H1" s="136" t="s">
-        <v>558</v>
+      <c r="H1" s="165" t="s">
+        <v>557</v>
       </c>
       <c r="I1" s="127" t="s">
         <v>512</v>
@@ -23527,7 +23528,7 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C2" s="5"/>
       <c r="D2" s="74"/>
-      <c r="H2" s="137"/>
+      <c r="H2" s="135"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="83" t="s">
@@ -23551,7 +23552,7 @@
       <c r="G3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="137" t="s">
+      <c r="H3" s="135" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -23602,7 +23603,7 @@
       <c r="G4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="137" t="s">
+      <c r="H4" s="135" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -23631,201 +23632,201 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="143" t="s">
-        <v>559</v>
-      </c>
-      <c r="B5" s="163">
+      <c r="A5" s="141" t="s">
+        <v>558</v>
+      </c>
+      <c r="B5" s="159">
         <v>2.8730000000000002</v>
       </c>
-      <c r="C5" s="133">
+      <c r="C5" s="132">
         <v>125</v>
       </c>
-      <c r="D5" s="133">
+      <c r="D5" s="132">
         <v>80</v>
       </c>
-      <c r="E5" s="133" t="s">
+      <c r="E5" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="133" t="s">
+      <c r="F5" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="133" t="s">
+      <c r="G5" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="137" t="s">
+      <c r="H5" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="133" t="s">
+      <c r="I5" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="133" t="s">
+      <c r="J5" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="133" t="s">
+      <c r="K5" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="133" t="s">
+      <c r="L5" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="133" t="s">
+      <c r="M5" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="133" t="s">
+      <c r="N5" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="133" t="s">
+      <c r="O5" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="108" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="143" t="s">
-        <v>561</v>
-      </c>
-      <c r="B6" s="163">
+      <c r="A6" s="141" t="s">
+        <v>560</v>
+      </c>
+      <c r="B6" s="159">
         <f>B5+1.539</f>
         <v>4.4119999999999999</v>
       </c>
-      <c r="C6" s="133">
+      <c r="C6" s="132">
         <v>125</v>
       </c>
-      <c r="D6" s="133">
+      <c r="D6" s="132">
         <v>80</v>
       </c>
-      <c r="E6" s="133" t="s">
+      <c r="E6" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="133" t="s">
+      <c r="F6" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="133" t="s">
+      <c r="G6" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="137" t="s">
+      <c r="H6" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="133" t="s">
+      <c r="I6" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="133" t="s">
+      <c r="J6" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="133" t="s">
+      <c r="K6" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="133" t="s">
+      <c r="L6" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="133" t="s">
+      <c r="M6" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="133" t="s">
+      <c r="N6" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="133" t="s">
+      <c r="O6" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="108" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="143" t="s">
-        <v>560</v>
-      </c>
-      <c r="B7" s="163">
+      <c r="A7" s="141" t="s">
+        <v>559</v>
+      </c>
+      <c r="B7" s="159">
         <f>B5+2*1.539</f>
         <v>5.9510000000000005</v>
       </c>
-      <c r="C7" s="133">
+      <c r="C7" s="132">
         <v>125</v>
       </c>
-      <c r="D7" s="133">
+      <c r="D7" s="132">
         <v>80</v>
       </c>
-      <c r="E7" s="133" t="s">
+      <c r="E7" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="133" t="s">
+      <c r="F7" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="133" t="s">
+      <c r="G7" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="138" t="s">
+      <c r="H7" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="133" t="s">
+      <c r="I7" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="133" t="s">
+      <c r="J7" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="133" t="s">
+      <c r="K7" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="133" t="s">
+      <c r="L7" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="133" t="s">
+      <c r="M7" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="133" t="s">
+      <c r="N7" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="133" t="s">
+      <c r="O7" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="108" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D8" s="153"/>
+      <c r="D8" s="151"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D9" s="153"/>
+      <c r="D9" s="151"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D10" s="153"/>
+      <c r="D10" s="151"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D11" s="153"/>
+      <c r="D11" s="151"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D12" s="153"/>
+      <c r="D12" s="151"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D13" s="153"/>
+      <c r="D13" s="151"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D14" s="153"/>
+      <c r="D14" s="151"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D15" s="153"/>
+      <c r="D15" s="151"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D16" s="162"/>
+      <c r="D16" s="158"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D17" s="153"/>
+      <c r="D17" s="151"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="162"/>
+      <c r="D18" s="158"/>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D38" s="153"/>
+      <c r="D38" s="151"/>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D39" s="162"/>
+      <c r="D39" s="158"/>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D40" s="153"/>
+      <c r="D40" s="151"/>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D41" s="162"/>
+      <c r="D41" s="158"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -24120,7 +24121,7 @@
   <dimension ref="B1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H6" sqref="H6:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24250,91 +24251,91 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="141" t="s">
+        <v>591</v>
+      </c>
+      <c r="C6" s="141" t="s">
+        <v>556</v>
+      </c>
+      <c r="D6" s="141" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="132">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F6" s="132">
+        <v>12</v>
+      </c>
+      <c r="G6" s="132">
+        <v>8</v>
+      </c>
+      <c r="H6" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146" t="s">
+        <v>590</v>
+      </c>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="141" t="s">
         <v>592</v>
       </c>
-      <c r="C6" s="143" t="s">
-        <v>557</v>
-      </c>
-      <c r="D6" s="143" t="s">
+      <c r="C7" s="141" t="s">
+        <v>556</v>
+      </c>
+      <c r="D7" s="141" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="133">
+      <c r="E7" s="132">
         <v>2.4E-2</v>
       </c>
-      <c r="F6" s="133">
+      <c r="F7" s="132">
         <v>12</v>
       </c>
-      <c r="G6" s="133">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G7" s="132">
+        <v>13</v>
+      </c>
+      <c r="H7" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="148"/>
-      <c r="J6" s="148" t="s">
-        <v>591</v>
-      </c>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="143" t="s">
+      <c r="I7" s="146"/>
+      <c r="J7" s="146" t="s">
+        <v>590</v>
+      </c>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="141" t="s">
+        <v>561</v>
+      </c>
+      <c r="C8" s="141" t="s">
+        <v>556</v>
+      </c>
+      <c r="D8" s="141" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="132">
+        <v>0.151</v>
+      </c>
+      <c r="F8" s="132">
+        <v>6</v>
+      </c>
+      <c r="G8" s="132">
+        <v>6</v>
+      </c>
+      <c r="H8" s="164" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146" t="s">
         <v>593</v>
       </c>
-      <c r="C7" s="143" t="s">
-        <v>557</v>
-      </c>
-      <c r="D7" s="143" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="133">
-        <v>2.4E-2</v>
-      </c>
-      <c r="F7" s="133">
-        <v>12</v>
-      </c>
-      <c r="G7" s="133">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="148"/>
-      <c r="J7" s="148" t="s">
-        <v>591</v>
-      </c>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="143" t="s">
-        <v>562</v>
-      </c>
-      <c r="C8" s="143" t="s">
-        <v>557</v>
-      </c>
-      <c r="D8" s="143" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="133">
-        <v>0.151</v>
-      </c>
-      <c r="F8" s="133">
-        <v>6</v>
-      </c>
-      <c r="G8" s="133">
-        <v>6</v>
-      </c>
-      <c r="H8" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="148"/>
-      <c r="J8" s="148" t="s">
-        <v>594</v>
-      </c>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -24680,108 +24681,108 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="143" t="s">
-        <v>563</v>
-      </c>
-      <c r="B18" s="143" t="str">
+      <c r="A18" s="141" t="s">
+        <v>562</v>
+      </c>
+      <c r="B18" s="141" t="str">
         <f>A18</f>
         <v>FTFM 40</v>
       </c>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="133">
+      <c r="D18" s="132">
         <v>40</v>
       </c>
-      <c r="E18" s="133">
+      <c r="E18" s="132">
         <v>0</v>
       </c>
-      <c r="F18" s="133" t="s">
+      <c r="F18" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133" t="s">
-        <v>557</v>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="132" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="143" t="s">
-        <v>566</v>
-      </c>
-      <c r="B20" s="143" t="str">
+      <c r="A20" s="141" t="s">
+        <v>565</v>
+      </c>
+      <c r="B20" s="141" t="str">
         <f>A20</f>
         <v>FTFM 60</v>
       </c>
-      <c r="C20" s="133" t="s">
+      <c r="C20" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="133">
+      <c r="D20" s="132">
         <v>60</v>
       </c>
-      <c r="E20" s="133">
+      <c r="E20" s="132">
         <v>49.5</v>
       </c>
-      <c r="F20" s="133" t="s">
+      <c r="F20" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133" t="s">
-        <v>557</v>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="143" t="s">
-        <v>564</v>
-      </c>
-      <c r="B21" s="143" t="str">
+      <c r="A21" s="141" t="s">
+        <v>563</v>
+      </c>
+      <c r="B21" s="141" t="str">
         <f>A21</f>
         <v>FTFM 80</v>
       </c>
-      <c r="C21" s="133" t="s">
+      <c r="C21" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="133">
+      <c r="D21" s="132">
         <v>80</v>
       </c>
-      <c r="E21" s="133">
+      <c r="E21" s="132">
         <v>64.5</v>
       </c>
-      <c r="F21" s="133" t="s">
+      <c r="F21" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133" t="s">
-        <v>557</v>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="143" t="s">
-        <v>565</v>
-      </c>
-      <c r="B23" s="143" t="str">
+      <c r="A23" s="141" t="s">
+        <v>564</v>
+      </c>
+      <c r="B23" s="141" t="str">
         <f>A23</f>
         <v>FTFM 80 Wind</v>
       </c>
-      <c r="C23" s="133" t="s">
+      <c r="C23" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="133">
+      <c r="D23" s="132">
         <v>80</v>
       </c>
-      <c r="E23" s="133">
+      <c r="E23" s="132">
         <f>D23-Endlock!$F$8</f>
         <v>74</v>
       </c>
-      <c r="F23" s="133" t="s">
+      <c r="F23" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133" t="s">
-        <v>557</v>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -25160,83 +25161,83 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="131" t="s">
-        <v>567</v>
-      </c>
-      <c r="B14" s="139" t="s">
+      <c r="A14" s="130" t="s">
+        <v>566</v>
+      </c>
+      <c r="B14" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="131" t="s">
-        <v>571</v>
-      </c>
-      <c r="D14" s="131">
+      <c r="C14" s="130" t="s">
+        <v>570</v>
+      </c>
+      <c r="D14" s="130">
         <v>133</v>
       </c>
-      <c r="E14" s="131">
+      <c r="E14" s="130">
         <v>2.5</v>
       </c>
-      <c r="F14" s="131">
+      <c r="F14" s="130">
         <f>D14-(2*E14)</f>
         <v>128</v>
       </c>
-      <c r="G14" s="131">
+      <c r="G14" s="130">
         <v>240000</v>
       </c>
-      <c r="H14" s="139">
+      <c r="H14" s="137">
         <v>7850</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="131" t="s">
-        <v>568</v>
-      </c>
-      <c r="B15" s="139" t="s">
+      <c r="A15" s="130" t="s">
+        <v>567</v>
+      </c>
+      <c r="B15" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="131" t="s">
-        <v>572</v>
-      </c>
-      <c r="D15" s="131">
+      <c r="C15" s="130" t="s">
+        <v>571</v>
+      </c>
+      <c r="D15" s="130">
         <v>133</v>
       </c>
-      <c r="E15" s="131">
+      <c r="E15" s="130">
         <v>3</v>
       </c>
-      <c r="F15" s="131">
+      <c r="F15" s="130">
         <f t="shared" ref="F15:F16" si="7">D15-(2*E15)</f>
         <v>127</v>
       </c>
-      <c r="G15" s="131">
+      <c r="G15" s="130">
         <v>240000</v>
       </c>
-      <c r="H15" s="139">
+      <c r="H15" s="137">
         <v>7850</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="131" t="s">
-        <v>569</v>
-      </c>
-      <c r="B16" s="139" t="s">
+      <c r="A16" s="130" t="s">
+        <v>568</v>
+      </c>
+      <c r="B16" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="131" t="s">
-        <v>573</v>
-      </c>
-      <c r="D16" s="131">
+      <c r="C16" s="130" t="s">
+        <v>572</v>
+      </c>
+      <c r="D16" s="130">
         <v>168</v>
       </c>
-      <c r="E16" s="131">
+      <c r="E16" s="130">
         <v>3</v>
       </c>
-      <c r="F16" s="131">
+      <c r="F16" s="130">
         <f t="shared" si="7"/>
         <v>162</v>
       </c>
-      <c r="G16" s="131">
+      <c r="G16" s="130">
         <v>240000</v>
       </c>
-      <c r="H16" s="139">
+      <c r="H16" s="137">
         <v>7850</v>
       </c>
     </row>
@@ -25253,7 +25254,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
+      <selection pane="bottomLeft" activeCell="J54" sqref="J54:J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27262,247 +27263,247 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A54" s="133" t="s">
-        <v>571</v>
-      </c>
-      <c r="B54" s="141" t="s">
-        <v>567</v>
-      </c>
-      <c r="C54" s="133">
+      <c r="A54" s="132" t="s">
+        <v>570</v>
+      </c>
+      <c r="B54" s="139" t="s">
+        <v>566</v>
+      </c>
+      <c r="C54" s="132">
         <v>128</v>
       </c>
-      <c r="D54" s="142">
+      <c r="D54" s="140">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="E54" s="133">
+      <c r="E54" s="132">
         <v>126</v>
       </c>
-      <c r="F54" s="133">
+      <c r="F54" s="132">
         <v>5</v>
       </c>
-      <c r="G54" s="133">
+      <c r="G54" s="132">
         <v>35.5</v>
       </c>
-      <c r="H54" s="143"/>
-      <c r="I54" s="143"/>
-      <c r="J54" s="143" t="s">
-        <v>603</v>
-      </c>
-      <c r="K54" s="143"/>
-      <c r="L54" s="143">
+      <c r="H54" s="141"/>
+      <c r="I54" s="141"/>
+      <c r="J54" s="162" t="s">
+        <v>602</v>
+      </c>
+      <c r="K54" s="141"/>
+      <c r="L54" s="141">
         <f t="shared" si="1"/>
         <v>111.52653920243766</v>
       </c>
-      <c r="M54" s="143"/>
-      <c r="N54" s="143">
+      <c r="M54" s="141"/>
+      <c r="N54" s="141">
         <f t="shared" si="2"/>
         <v>4.3908086300172311</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A55" s="133" t="s">
-        <v>571</v>
-      </c>
-      <c r="B55" s="141" t="s">
-        <v>567</v>
-      </c>
-      <c r="C55" s="133">
+      <c r="A55" s="132" t="s">
+        <v>570</v>
+      </c>
+      <c r="B55" s="139" t="s">
+        <v>566</v>
+      </c>
+      <c r="C55" s="132">
         <v>128</v>
       </c>
-      <c r="D55" s="142">
+      <c r="D55" s="140">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="E55" s="133">
+      <c r="E55" s="132">
         <v>126</v>
       </c>
-      <c r="F55" s="133">
+      <c r="F55" s="132">
         <v>5</v>
       </c>
-      <c r="G55" s="133">
+      <c r="G55" s="132">
         <v>45.5</v>
       </c>
-      <c r="H55" s="143"/>
-      <c r="I55" s="143"/>
-      <c r="J55" s="143" t="s">
-        <v>603</v>
-      </c>
-      <c r="K55" s="143"/>
-      <c r="L55" s="143">
+      <c r="H55" s="141"/>
+      <c r="I55" s="141"/>
+      <c r="J55" s="162" t="s">
+        <v>602</v>
+      </c>
+      <c r="K55" s="141"/>
+      <c r="L55" s="141">
         <f t="shared" si="1"/>
         <v>142.94246573833559</v>
       </c>
-      <c r="M55" s="143"/>
-      <c r="N55" s="143">
+      <c r="M55" s="141"/>
+      <c r="N55" s="141">
         <f t="shared" si="2"/>
         <v>5.6276561314305349</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A56" s="133" t="s">
-        <v>572</v>
-      </c>
-      <c r="B56" s="141" t="s">
-        <v>574</v>
-      </c>
-      <c r="C56" s="133">
+      <c r="A56" s="132" t="s">
+        <v>571</v>
+      </c>
+      <c r="B56" s="139" t="s">
+        <v>573</v>
+      </c>
+      <c r="C56" s="132">
         <v>127</v>
       </c>
-      <c r="D56" s="142">
+      <c r="D56" s="140">
         <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
-      <c r="E56" s="133">
+      <c r="E56" s="132">
         <v>126</v>
       </c>
-      <c r="F56" s="133">
+      <c r="F56" s="132">
         <v>5</v>
       </c>
-      <c r="G56" s="133">
+      <c r="G56" s="132">
         <v>35.5</v>
       </c>
-      <c r="H56" s="143"/>
-      <c r="I56" s="143"/>
-      <c r="J56" s="143" t="s">
-        <v>603</v>
-      </c>
-      <c r="K56" s="143"/>
-      <c r="L56" s="143">
+      <c r="H56" s="141"/>
+      <c r="I56" s="141"/>
+      <c r="J56" s="162" t="s">
+        <v>602</v>
+      </c>
+      <c r="K56" s="141"/>
+      <c r="L56" s="141">
         <f t="shared" si="1"/>
         <v>111.52653920243766</v>
       </c>
-      <c r="M56" s="143"/>
-      <c r="N56" s="143">
+      <c r="M56" s="141"/>
+      <c r="N56" s="141">
         <f t="shared" si="2"/>
         <v>4.3908086300172311</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A57" s="133" t="s">
-        <v>572</v>
-      </c>
-      <c r="B57" s="141" t="s">
-        <v>574</v>
-      </c>
-      <c r="C57" s="133">
+      <c r="A57" s="132" t="s">
+        <v>571</v>
+      </c>
+      <c r="B57" s="139" t="s">
+        <v>573</v>
+      </c>
+      <c r="C57" s="132">
         <v>127</v>
       </c>
-      <c r="D57" s="142">
+      <c r="D57" s="140">
         <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
-      <c r="E57" s="133">
+      <c r="E57" s="132">
         <v>126</v>
       </c>
-      <c r="F57" s="133">
+      <c r="F57" s="132">
         <v>5</v>
       </c>
-      <c r="G57" s="133">
+      <c r="G57" s="132">
         <v>45.5</v>
       </c>
-      <c r="H57" s="143"/>
-      <c r="I57" s="143"/>
-      <c r="J57" s="143" t="s">
-        <v>603</v>
-      </c>
-      <c r="K57" s="143"/>
-      <c r="L57" s="143">
+      <c r="H57" s="141"/>
+      <c r="I57" s="141"/>
+      <c r="J57" s="162" t="s">
+        <v>602</v>
+      </c>
+      <c r="K57" s="141"/>
+      <c r="L57" s="141">
         <f t="shared" si="1"/>
         <v>142.94246573833559</v>
       </c>
-      <c r="M57" s="143"/>
-      <c r="N57" s="143">
+      <c r="M57" s="141"/>
+      <c r="N57" s="141">
         <f t="shared" si="2"/>
         <v>5.6276561314305349</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A58" s="133" t="s">
-        <v>573</v>
-      </c>
-      <c r="B58" s="141" t="s">
-        <v>575</v>
-      </c>
-      <c r="C58" s="133">
+      <c r="A58" s="132" t="s">
+        <v>572</v>
+      </c>
+      <c r="B58" s="139" t="s">
+        <v>574</v>
+      </c>
+      <c r="C58" s="132">
         <v>162</v>
       </c>
-      <c r="D58" s="142">
+      <c r="D58" s="140">
         <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
-      <c r="E58" s="133">
+      <c r="E58" s="132">
         <v>161</v>
       </c>
-      <c r="F58" s="133">
+      <c r="F58" s="132">
         <v>8</v>
       </c>
-      <c r="G58" s="133">
+      <c r="G58" s="132">
         <v>35.5</v>
       </c>
-      <c r="H58" s="143"/>
-      <c r="I58" s="143"/>
-      <c r="J58" s="143" t="s">
-        <v>603</v>
-      </c>
-      <c r="K58" s="143"/>
-      <c r="L58" s="143">
+      <c r="H58" s="141"/>
+      <c r="I58" s="141"/>
+      <c r="J58" s="162" t="s">
+        <v>602</v>
+      </c>
+      <c r="K58" s="141"/>
+      <c r="L58" s="141">
         <f t="shared" si="1"/>
         <v>111.52653920243766</v>
       </c>
-      <c r="M58" s="143"/>
-      <c r="N58" s="143">
+      <c r="M58" s="141"/>
+      <c r="N58" s="141">
         <f t="shared" si="2"/>
         <v>4.3908086300172311</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A59" s="133" t="s">
-        <v>573</v>
-      </c>
-      <c r="B59" s="141" t="s">
-        <v>575</v>
-      </c>
-      <c r="C59" s="133">
+      <c r="A59" s="132" t="s">
+        <v>572</v>
+      </c>
+      <c r="B59" s="139" t="s">
+        <v>574</v>
+      </c>
+      <c r="C59" s="132">
         <v>162</v>
       </c>
-      <c r="D59" s="142">
+      <c r="D59" s="140">
         <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
-      <c r="E59" s="133">
+      <c r="E59" s="132">
         <v>161</v>
       </c>
-      <c r="F59" s="133">
+      <c r="F59" s="132">
         <v>8</v>
       </c>
-      <c r="G59" s="133">
+      <c r="G59" s="132">
         <v>45.5</v>
       </c>
-      <c r="H59" s="143"/>
-      <c r="I59" s="143"/>
-      <c r="J59" s="143" t="s">
-        <v>603</v>
-      </c>
-      <c r="K59" s="143"/>
-      <c r="L59" s="143">
+      <c r="H59" s="141"/>
+      <c r="I59" s="141"/>
+      <c r="J59" s="162" t="s">
+        <v>602</v>
+      </c>
+      <c r="K59" s="141"/>
+      <c r="L59" s="141">
         <f t="shared" si="1"/>
         <v>142.94246573833559</v>
       </c>
-      <c r="M59" s="143"/>
-      <c r="N59" s="143">
+      <c r="M59" s="141"/>
+      <c r="N59" s="141">
         <f t="shared" si="2"/>
         <v>5.6276561314305349</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B62" s="140"/>
+      <c r="B62" s="138"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B63" s="140"/>
+      <c r="B63" s="138"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B64" s="140"/>
+      <c r="B64" s="138"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="56"/>
@@ -27868,7 +27869,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CEBB8A-2D02-4BAB-B38A-A9E4F06A2663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28389D48-8364-4193-AD74-5E7C62398A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="1410" windowWidth="25970" windowHeight="18390" tabRatio="615" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="1410" windowWidth="28820" windowHeight="18390" tabRatio="724" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2586,7 +2586,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2942,25 +2942,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3002,26 +2987,11 @@
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3032,24 +3002,35 @@
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11645,19 +11626,19 @@
       <c r="X55" s="70"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="H60" s="169" t="s">
+      <c r="H60" s="157" t="s">
         <v>481</v>
       </c>
-      <c r="I60" s="169"/>
-      <c r="J60" s="169"/>
-      <c r="K60" s="169"/>
-      <c r="L60" s="169"/>
-      <c r="M60" s="169"/>
-      <c r="N60" s="169"/>
-      <c r="O60" s="169"/>
-      <c r="P60" s="169"/>
-      <c r="Q60" s="169"/>
-      <c r="R60" s="169"/>
+      <c r="I60" s="157"/>
+      <c r="J60" s="157"/>
+      <c r="K60" s="157"/>
+      <c r="L60" s="157"/>
+      <c r="M60" s="157"/>
+      <c r="N60" s="157"/>
+      <c r="O60" s="157"/>
+      <c r="P60" s="157"/>
+      <c r="Q60" s="157"/>
+      <c r="R60" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12678,52 +12659,52 @@
       <c r="G17" s="74"/>
     </row>
     <row r="18" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="147" t="s">
+      <c r="A18" s="142" t="s">
         <v>572</v>
       </c>
-      <c r="B18" s="132">
+      <c r="B18" s="129">
         <v>368</v>
       </c>
-      <c r="C18" s="132">
+      <c r="C18" s="129">
         <v>1444</v>
       </c>
-      <c r="D18" s="132">
+      <c r="D18" s="129">
         <v>22</v>
       </c>
-      <c r="E18" s="148" t="s">
+      <c r="E18" s="143" t="s">
         <v>574</v>
       </c>
-      <c r="F18" s="141"/>
-      <c r="G18" s="132">
+      <c r="F18" s="136"/>
+      <c r="G18" s="129">
         <v>30</v>
       </c>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141" t="e" vm="7">
+      <c r="H18" s="136"/>
+      <c r="I18" s="136" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="147" t="s">
+      <c r="A19" s="142" t="s">
         <v>573</v>
       </c>
-      <c r="B19" s="132">
+      <c r="B19" s="129">
         <v>650</v>
       </c>
-      <c r="C19" s="132">
+      <c r="C19" s="129">
         <v>2058</v>
       </c>
-      <c r="D19" s="132">
+      <c r="D19" s="129">
         <v>22</v>
       </c>
-      <c r="E19" s="148" t="s">
+      <c r="E19" s="143" t="s">
         <v>574</v>
       </c>
-      <c r="F19" s="141"/>
-      <c r="G19" s="132">
+      <c r="F19" s="136"/>
+      <c r="G19" s="129">
         <v>40</v>
       </c>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141" t="e" vm="8">
+      <c r="H19" s="136"/>
+      <c r="I19" s="136" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13501,151 +13482,151 @@
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="149" t="s">
+      <c r="A37" s="144" t="s">
         <v>575</v>
       </c>
-      <c r="B37" s="132">
+      <c r="B37" s="129">
         <v>280</v>
       </c>
-      <c r="C37" s="132">
+      <c r="C37" s="129">
         <v>450</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="132">
+      <c r="E37" s="129">
         <v>3</v>
       </c>
       <c r="F37" s="108">
         <f t="shared" si="4"/>
         <v>230</v>
       </c>
-      <c r="G37" s="132">
+      <c r="G37" s="129">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="149" t="s">
+      <c r="A38" s="144" t="s">
         <v>576</v>
       </c>
-      <c r="B38" s="132">
+      <c r="B38" s="129">
         <v>310</v>
       </c>
-      <c r="C38" s="132">
+      <c r="C38" s="129">
         <v>450</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="132">
+      <c r="E38" s="129">
         <v>3</v>
       </c>
       <c r="F38" s="108">
         <f t="shared" si="4"/>
         <v>260</v>
       </c>
-      <c r="G38" s="132">
+      <c r="G38" s="129">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="149" t="s">
+      <c r="A39" s="144" t="s">
         <v>577</v>
       </c>
-      <c r="B39" s="132">
+      <c r="B39" s="129">
         <v>340</v>
       </c>
-      <c r="C39" s="132">
+      <c r="C39" s="129">
         <v>450</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="132">
+      <c r="E39" s="129">
         <v>3</v>
       </c>
       <c r="F39" s="108">
         <f t="shared" si="4"/>
         <v>290</v>
       </c>
-      <c r="G39" s="132">
+      <c r="G39" s="129">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="149" t="s">
+      <c r="A40" s="144" t="s">
         <v>578</v>
       </c>
-      <c r="B40" s="132">
+      <c r="B40" s="129">
         <v>370</v>
       </c>
-      <c r="C40" s="132">
+      <c r="C40" s="129">
         <v>450</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="132">
+      <c r="E40" s="129">
         <v>3</v>
       </c>
       <c r="F40" s="108">
         <f t="shared" si="4"/>
         <v>320</v>
       </c>
-      <c r="G40" s="132">
+      <c r="G40" s="129">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="149" t="s">
+      <c r="A41" s="144" t="s">
         <v>579</v>
       </c>
-      <c r="B41" s="132">
+      <c r="B41" s="129">
         <v>400</v>
       </c>
-      <c r="C41" s="132">
+      <c r="C41" s="129">
         <v>450</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="132">
+      <c r="E41" s="129">
         <v>3</v>
       </c>
       <c r="F41" s="108">
         <f t="shared" si="4"/>
         <v>350</v>
       </c>
-      <c r="G41" s="132">
+      <c r="G41" s="129">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="149" t="s">
+      <c r="A42" s="144" t="s">
         <v>580</v>
       </c>
-      <c r="B42" s="132">
+      <c r="B42" s="129">
         <v>440</v>
       </c>
-      <c r="C42" s="132">
+      <c r="C42" s="129">
         <v>450</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="132">
+      <c r="E42" s="129">
         <v>3</v>
       </c>
       <c r="F42" s="108">
         <f t="shared" si="4"/>
         <v>390</v>
       </c>
-      <c r="G42" s="132">
+      <c r="G42" s="129">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C44" s="160" t="s">
+      <c r="C44" s="150" t="s">
         <v>585</v>
       </c>
     </row>
@@ -13729,14 +13710,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="157" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -14596,7 +14577,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14867,34 +14848,33 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="158" t="s">
         <v>586</v>
       </c>
-      <c r="B6">
-        <v>7.1090909090909102</v>
-      </c>
-      <c r="C6" s="129">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="D6" s="128">
+      <c r="B6" s="145">
+        <v>7.1</v>
+      </c>
+      <c r="C6" s="147"/>
+      <c r="D6" s="159">
         <v>110</v>
       </c>
-      <c r="E6" s="128">
+      <c r="E6" s="159">
         <v>112</v>
       </c>
-      <c r="F6" s="128">
+      <c r="F6" s="159">
         <v>18</v>
       </c>
-      <c r="G6" s="133">
+      <c r="G6" s="160">
         <v>20</v>
       </c>
-      <c r="H6" s="128">
+      <c r="H6" s="159">
         <v>4500</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="74">
         <v>133</v>
       </c>
-      <c r="K6" s="5">
+      <c r="J6" s="74"/>
+      <c r="K6" s="74">
         <v>0</v>
       </c>
       <c r="L6" t="e" vm="1">
@@ -14920,35 +14900,33 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="166" t="s">
+      <c r="A7" s="158" t="s">
         <v>587</v>
       </c>
-      <c r="B7">
-        <v>9.4181818181818198</v>
-      </c>
-      <c r="C7" s="131">
-        <v>1.036</v>
-      </c>
-      <c r="D7" s="130">
+      <c r="B7" s="145">
+        <v>9.4</v>
+      </c>
+      <c r="C7" s="161"/>
+      <c r="D7" s="162">
         <v>110</v>
       </c>
-      <c r="E7" s="130">
+      <c r="E7" s="162">
         <v>112</v>
       </c>
-      <c r="F7" s="130">
+      <c r="F7" s="162">
         <v>18</v>
       </c>
-      <c r="G7" s="134">
+      <c r="G7" s="163">
         <v>20</v>
       </c>
-      <c r="H7" s="130">
+      <c r="H7" s="162">
         <v>6000</v>
       </c>
-      <c r="I7" s="132">
+      <c r="I7" s="164">
         <v>133</v>
       </c>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132">
+      <c r="J7" s="164"/>
+      <c r="K7" s="164">
         <v>0</v>
       </c>
       <c r="L7" t="e" vm="1">
@@ -14974,34 +14952,33 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="158" t="s">
         <v>588</v>
       </c>
-      <c r="B8">
-        <v>11.772727272727273</v>
-      </c>
-      <c r="C8" s="129">
-        <v>1.2949999999999999</v>
-      </c>
-      <c r="D8" s="128">
+      <c r="B8" s="145">
+        <v>11.7</v>
+      </c>
+      <c r="C8" s="147"/>
+      <c r="D8" s="159">
         <v>110</v>
       </c>
-      <c r="E8" s="128">
+      <c r="E8" s="159">
         <v>112</v>
       </c>
-      <c r="F8" s="128">
+      <c r="F8" s="159">
         <v>18</v>
       </c>
-      <c r="G8" s="133">
+      <c r="G8" s="160">
         <v>20</v>
       </c>
-      <c r="H8" s="128">
+      <c r="H8" s="159">
         <v>10000</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="74">
         <v>133</v>
       </c>
-      <c r="K8" s="5">
+      <c r="J8" s="74"/>
+      <c r="K8" s="74">
         <v>0</v>
       </c>
       <c r="L8" t="e" vm="1">
@@ -15027,35 +15004,33 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="166" t="s">
+      <c r="A9" s="158" t="s">
         <v>589</v>
       </c>
-      <c r="B9">
-        <v>14.127272727272729</v>
-      </c>
-      <c r="C9" s="131">
-        <v>1.554</v>
-      </c>
-      <c r="D9" s="130">
+      <c r="B9" s="145">
+        <v>14.2</v>
+      </c>
+      <c r="C9" s="161"/>
+      <c r="D9" s="162">
         <v>110</v>
       </c>
-      <c r="E9" s="130">
+      <c r="E9" s="162">
         <v>112</v>
       </c>
-      <c r="F9" s="130">
+      <c r="F9" s="162">
         <v>18</v>
       </c>
-      <c r="G9" s="134">
+      <c r="G9" s="163">
         <v>20</v>
       </c>
-      <c r="H9" s="130">
+      <c r="H9" s="162">
         <v>13500</v>
       </c>
-      <c r="I9" s="132">
+      <c r="I9" s="164">
         <v>133</v>
       </c>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132">
+      <c r="J9" s="164"/>
+      <c r="K9" s="164">
         <v>0</v>
       </c>
       <c r="L9" t="e" vm="1">
@@ -15081,34 +15056,33 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="158" t="s">
         <v>586</v>
       </c>
-      <c r="B10">
-        <v>7.1090909090909102</v>
-      </c>
-      <c r="C10" s="129">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="D10" s="128">
+      <c r="B10" s="145">
+        <v>7.1</v>
+      </c>
+      <c r="C10" s="147"/>
+      <c r="D10" s="159">
         <v>110</v>
       </c>
-      <c r="E10" s="128">
+      <c r="E10" s="159">
         <v>112</v>
       </c>
-      <c r="F10" s="128">
+      <c r="F10" s="159">
         <v>18</v>
       </c>
-      <c r="G10" s="133">
+      <c r="G10" s="160">
         <v>20</v>
       </c>
-      <c r="H10" s="128">
+      <c r="H10" s="159">
         <v>4500</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="74">
         <v>133</v>
       </c>
-      <c r="K10" s="5">
+      <c r="J10" s="74"/>
+      <c r="K10" s="74">
         <v>0</v>
       </c>
       <c r="L10" t="e" vm="2">
@@ -15134,35 +15108,33 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="158" t="s">
         <v>587</v>
       </c>
-      <c r="B11">
-        <v>9.4181818181818198</v>
-      </c>
-      <c r="C11" s="131">
-        <v>1.036</v>
-      </c>
-      <c r="D11" s="130">
+      <c r="B11" s="145">
+        <v>9.4</v>
+      </c>
+      <c r="C11" s="161"/>
+      <c r="D11" s="162">
         <v>110</v>
       </c>
-      <c r="E11" s="130">
+      <c r="E11" s="162">
         <v>112</v>
       </c>
-      <c r="F11" s="130">
+      <c r="F11" s="162">
         <v>18</v>
       </c>
-      <c r="G11" s="134">
+      <c r="G11" s="163">
         <v>20</v>
       </c>
-      <c r="H11" s="130">
+      <c r="H11" s="162">
         <v>6000</v>
       </c>
-      <c r="I11" s="132">
+      <c r="I11" s="164">
         <v>133</v>
       </c>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132">
+      <c r="J11" s="164"/>
+      <c r="K11" s="164">
         <v>0</v>
       </c>
       <c r="L11" t="e" vm="2">
@@ -15188,34 +15160,33 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="165" t="s">
+      <c r="A12" s="158" t="s">
         <v>588</v>
       </c>
-      <c r="B12">
-        <v>11.772727272727273</v>
-      </c>
-      <c r="C12" s="129">
-        <v>1.2949999999999999</v>
-      </c>
-      <c r="D12" s="128">
+      <c r="B12" s="145">
+        <v>11.7</v>
+      </c>
+      <c r="C12" s="147"/>
+      <c r="D12" s="159">
         <v>110</v>
       </c>
-      <c r="E12" s="128">
+      <c r="E12" s="159">
         <v>112</v>
       </c>
-      <c r="F12" s="128">
+      <c r="F12" s="159">
         <v>18</v>
       </c>
-      <c r="G12" s="133">
+      <c r="G12" s="160">
         <v>20</v>
       </c>
-      <c r="H12" s="128">
+      <c r="H12" s="159">
         <v>10000</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="74">
         <v>133</v>
       </c>
-      <c r="K12" s="5">
+      <c r="J12" s="74"/>
+      <c r="K12" s="74">
         <v>0</v>
       </c>
       <c r="L12" t="e" vm="2">
@@ -15241,35 +15212,33 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="158" t="s">
         <v>589</v>
       </c>
-      <c r="B13">
-        <v>14.127272727272729</v>
-      </c>
-      <c r="C13" s="131">
-        <v>1.554</v>
-      </c>
-      <c r="D13" s="130">
+      <c r="B13" s="145">
+        <v>14.1</v>
+      </c>
+      <c r="C13" s="161"/>
+      <c r="D13" s="162">
         <v>110</v>
       </c>
-      <c r="E13" s="130">
+      <c r="E13" s="162">
         <v>112</v>
       </c>
-      <c r="F13" s="130">
+      <c r="F13" s="162">
         <v>18</v>
       </c>
-      <c r="G13" s="134">
+      <c r="G13" s="163">
         <v>20</v>
       </c>
-      <c r="H13" s="130">
+      <c r="H13" s="162">
         <v>13500</v>
       </c>
-      <c r="I13" s="132">
+      <c r="I13" s="164">
         <v>133</v>
       </c>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132">
+      <c r="J13" s="164"/>
+      <c r="K13" s="164">
         <v>0</v>
       </c>
       <c r="L13" t="e" vm="2">
@@ -15295,35 +15264,33 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="167" t="s">
+      <c r="A14" s="158" t="s">
         <v>590</v>
       </c>
-      <c r="B14">
-        <v>5.5909090909090917</v>
-      </c>
-      <c r="C14" s="154">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="D14" s="153">
+      <c r="B14" s="145">
+        <v>5.6</v>
+      </c>
+      <c r="C14" s="147"/>
+      <c r="D14" s="159">
         <v>110</v>
       </c>
-      <c r="E14" s="153">
+      <c r="E14" s="159">
         <v>112</v>
       </c>
-      <c r="F14" s="153">
+      <c r="F14" s="159">
         <v>18</v>
       </c>
-      <c r="G14" s="155">
+      <c r="G14" s="160">
         <v>20</v>
       </c>
-      <c r="H14" s="153">
+      <c r="H14" s="159">
         <v>4500</v>
       </c>
-      <c r="I14" s="150">
+      <c r="I14" s="74">
         <v>133</v>
       </c>
-      <c r="J14" s="150"/>
-      <c r="K14" s="150">
+      <c r="J14" s="74"/>
+      <c r="K14" s="74">
         <v>33</v>
       </c>
       <c r="L14" t="e" vm="3">
@@ -15349,35 +15316,33 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="158" t="s">
         <v>591</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="145">
         <v>7.4</v>
       </c>
-      <c r="C15" s="131">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="D15" s="156">
+      <c r="C15" s="161"/>
+      <c r="D15" s="162">
         <v>110</v>
       </c>
-      <c r="E15" s="156">
+      <c r="E15" s="162">
         <v>112</v>
       </c>
-      <c r="F15" s="156">
+      <c r="F15" s="162">
         <v>18</v>
       </c>
-      <c r="G15" s="157">
+      <c r="G15" s="163">
         <v>20</v>
       </c>
-      <c r="H15" s="156">
+      <c r="H15" s="162">
         <v>6000</v>
       </c>
-      <c r="I15" s="145">
+      <c r="I15" s="164">
         <v>133</v>
       </c>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145">
+      <c r="J15" s="164"/>
+      <c r="K15" s="164">
         <v>33</v>
       </c>
       <c r="L15" t="e" vm="3">
@@ -15403,35 +15368,33 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="167" t="s">
+      <c r="A16" s="158" t="s">
         <v>592</v>
       </c>
-      <c r="B16">
-        <v>9.2545454545454557</v>
-      </c>
-      <c r="C16" s="154">
-        <v>1.018</v>
-      </c>
-      <c r="D16" s="153">
+      <c r="B16" s="145">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C16" s="147"/>
+      <c r="D16" s="159">
         <v>110</v>
       </c>
-      <c r="E16" s="153">
+      <c r="E16" s="159">
         <v>112</v>
       </c>
-      <c r="F16" s="153">
+      <c r="F16" s="159">
         <v>18</v>
       </c>
-      <c r="G16" s="155">
+      <c r="G16" s="160">
         <v>20</v>
       </c>
-      <c r="H16" s="153">
+      <c r="H16" s="159">
         <v>1200</v>
       </c>
-      <c r="I16" s="150">
+      <c r="I16" s="74">
         <v>133</v>
       </c>
-      <c r="J16" s="150"/>
-      <c r="K16" s="150">
+      <c r="J16" s="74"/>
+      <c r="K16" s="74">
         <v>33</v>
       </c>
       <c r="L16" t="e" vm="3">
@@ -15623,7 +15586,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15649,7 +15612,7 @@
       <c r="C1" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="152" t="s">
+      <c r="D1" s="146" t="s">
         <v>128</v>
       </c>
       <c r="E1" s="121" t="s">
@@ -15661,7 +15624,7 @@
       <c r="G1" s="126" t="s">
         <v>502</v>
       </c>
-      <c r="H1" s="164" t="s">
+      <c r="H1" s="156" t="s">
         <v>548</v>
       </c>
       <c r="I1" s="127" t="s">
@@ -15692,7 +15655,7 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C2" s="5"/>
       <c r="D2" s="74"/>
-      <c r="H2" s="135"/>
+      <c r="H2" s="130"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="83" t="s">
@@ -15716,7 +15679,7 @@
       <c r="G3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="135" t="s">
+      <c r="H3" s="130" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -15767,7 +15730,7 @@
       <c r="G4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="135" t="s">
+      <c r="H4" s="130" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -15796,49 +15759,49 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="136" t="s">
         <v>549</v>
       </c>
-      <c r="B5" s="159">
+      <c r="B5" s="149">
         <v>2.8730000000000002</v>
       </c>
-      <c r="C5" s="132">
+      <c r="C5" s="129">
         <v>125</v>
       </c>
-      <c r="D5" s="132">
+      <c r="D5" s="129">
         <v>80</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="132" t="s">
+      <c r="F5" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="132" t="s">
+      <c r="G5" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="135" t="s">
+      <c r="H5" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="132" t="s">
+      <c r="I5" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="132" t="s">
+      <c r="J5" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="132" t="s">
+      <c r="K5" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="132" t="s">
+      <c r="L5" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="132" t="s">
+      <c r="M5" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="132" t="s">
+      <c r="N5" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="132" t="s">
+      <c r="O5" s="129" t="s">
         <v>29</v>
       </c>
       <c r="P5" s="108" t="s">
@@ -15846,50 +15809,50 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="136" t="s">
         <v>551</v>
       </c>
-      <c r="B6" s="159">
+      <c r="B6" s="149">
         <f>B5+1.539</f>
         <v>4.4119999999999999</v>
       </c>
-      <c r="C6" s="132">
+      <c r="C6" s="129">
         <v>125</v>
       </c>
-      <c r="D6" s="132">
+      <c r="D6" s="129">
         <v>80</v>
       </c>
-      <c r="E6" s="132" t="s">
+      <c r="E6" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="132" t="s">
+      <c r="F6" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="132" t="s">
+      <c r="G6" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="135" t="s">
+      <c r="H6" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="132" t="s">
+      <c r="I6" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="132" t="s">
+      <c r="J6" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="132" t="s">
+      <c r="K6" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="132" t="s">
+      <c r="M6" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="132" t="s">
+      <c r="N6" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="132" t="s">
+      <c r="O6" s="129" t="s">
         <v>29</v>
       </c>
       <c r="P6" s="108" t="s">
@@ -15897,50 +15860,50 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="136" t="s">
         <v>550</v>
       </c>
-      <c r="B7" s="159">
+      <c r="B7" s="149">
         <f>B5+2*1.539</f>
         <v>5.9510000000000005</v>
       </c>
-      <c r="C7" s="132">
+      <c r="C7" s="129">
         <v>125</v>
       </c>
-      <c r="D7" s="132">
+      <c r="D7" s="129">
         <v>80</v>
       </c>
-      <c r="E7" s="132" t="s">
+      <c r="E7" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="132" t="s">
+      <c r="F7" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="132" t="s">
+      <c r="G7" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="136" t="s">
+      <c r="H7" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="132" t="s">
+      <c r="I7" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="132" t="s">
+      <c r="J7" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="132" t="s">
+      <c r="K7" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="132" t="s">
+      <c r="L7" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="132" t="s">
+      <c r="M7" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="132" t="s">
+      <c r="N7" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="132" t="s">
+      <c r="O7" s="129" t="s">
         <v>29</v>
       </c>
       <c r="P7" s="108" t="s">
@@ -15948,49 +15911,49 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D8" s="151"/>
+      <c r="D8" s="145"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D9" s="151"/>
+      <c r="D9" s="145"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D10" s="151"/>
+      <c r="D10" s="145"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D11" s="151"/>
+      <c r="D11" s="145"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D12" s="151"/>
+      <c r="D12" s="145"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D13" s="151"/>
+      <c r="D13" s="145"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D14" s="151"/>
+      <c r="D14" s="145"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D15" s="151"/>
+      <c r="D15" s="145"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D16" s="158"/>
+      <c r="D16" s="148"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D17" s="151"/>
+      <c r="D17" s="145"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="158"/>
+      <c r="D18" s="148"/>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D38" s="151"/>
+      <c r="D38" s="145"/>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D39" s="158"/>
+      <c r="D39" s="148"/>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D40" s="151"/>
+      <c r="D40" s="145"/>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D41" s="158"/>
+      <c r="D41" s="148"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16134,91 +16097,91 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="136" t="s">
         <v>582</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="136" t="s">
         <v>547</v>
       </c>
-      <c r="D6" s="141" t="s">
+      <c r="D6" s="136" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="170">
+      <c r="E6" s="154">
         <v>25</v>
       </c>
-      <c r="F6" s="132">
+      <c r="F6" s="129">
         <v>12</v>
       </c>
-      <c r="G6" s="132">
+      <c r="G6" s="129">
         <v>8</v>
       </c>
-      <c r="H6" s="162" t="s">
+      <c r="H6" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146" t="s">
+      <c r="I6" s="141"/>
+      <c r="J6" s="141" t="s">
         <v>581</v>
       </c>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="136" t="s">
         <v>583</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="136" t="s">
         <v>547</v>
       </c>
-      <c r="D7" s="141" t="s">
+      <c r="D7" s="136" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="170">
+      <c r="E7" s="154">
         <v>24</v>
       </c>
-      <c r="F7" s="132">
+      <c r="F7" s="129">
         <v>12</v>
       </c>
-      <c r="G7" s="132">
+      <c r="G7" s="129">
         <v>13</v>
       </c>
-      <c r="H7" s="162" t="s">
+      <c r="H7" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146" t="s">
+      <c r="I7" s="141"/>
+      <c r="J7" s="141" t="s">
         <v>581</v>
       </c>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="136" t="s">
         <v>552</v>
       </c>
-      <c r="C8" s="141" t="s">
+      <c r="C8" s="136" t="s">
         <v>547</v>
       </c>
-      <c r="D8" s="141" t="s">
+      <c r="D8" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="170">
+      <c r="E8" s="154">
         <v>15</v>
       </c>
-      <c r="F8" s="132">
+      <c r="F8" s="129">
         <v>6</v>
       </c>
-      <c r="G8" s="132">
+      <c r="G8" s="129">
         <v>6</v>
       </c>
-      <c r="H8" s="163" t="s">
+      <c r="H8" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="146"/>
-      <c r="J8" s="146" t="s">
+      <c r="I8" s="141"/>
+      <c r="J8" s="141" t="s">
         <v>584</v>
       </c>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16228,7 +16191,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0CC1CC-64D0-4115-AE5E-AF959282EFAA}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
@@ -16563,186 +16526,109 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="146" t="s">
+      <c r="A18" s="141" t="s">
         <v>553</v>
       </c>
-      <c r="B18" s="146" t="str">
+      <c r="B18" s="141" t="str">
         <f>A18</f>
         <v>FTFM 40</v>
       </c>
-      <c r="C18" s="145" t="s">
+      <c r="C18" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="145">
+      <c r="D18" s="140">
         <v>40</v>
       </c>
-      <c r="E18" s="171">
+      <c r="E18" s="155">
         <v>0</v>
       </c>
-      <c r="F18" s="145" t="s">
+      <c r="F18" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145" t="s">
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="172"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="173"/>
-    </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="146" t="s">
+      <c r="A20" s="141" t="s">
         <v>556</v>
       </c>
-      <c r="B20" s="146" t="str">
+      <c r="B20" s="141" t="str">
         <f>A20</f>
         <v>FTFM 60</v>
       </c>
-      <c r="C20" s="145" t="s">
+      <c r="C20" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="145">
+      <c r="D20" s="140">
         <v>60</v>
       </c>
-      <c r="E20" s="145">
+      <c r="E20" s="140">
         <v>49.5</v>
       </c>
-      <c r="F20" s="145" t="s">
+      <c r="F20" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145" t="s">
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="146" t="s">
+      <c r="A21" s="141" t="s">
         <v>554</v>
       </c>
-      <c r="B21" s="146" t="str">
+      <c r="B21" s="141" t="str">
         <f>A21</f>
         <v>FTFM 80</v>
       </c>
-      <c r="C21" s="145" t="s">
+      <c r="C21" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="145">
+      <c r="D21" s="140">
         <v>80</v>
       </c>
-      <c r="E21" s="145">
+      <c r="E21" s="140">
         <v>64.5</v>
       </c>
-      <c r="F21" s="145" t="s">
+      <c r="F21" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145" t="s">
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="172"/>
-      <c r="B22" s="172"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="173"/>
-    </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="146" t="s">
+      <c r="A23" s="141" t="s">
         <v>555</v>
       </c>
-      <c r="B23" s="146" t="str">
+      <c r="B23" s="141" t="str">
         <f>A23</f>
         <v>FTFM 80 Wind</v>
       </c>
-      <c r="C23" s="145" t="s">
+      <c r="C23" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="145">
+      <c r="D23" s="140">
         <v>80</v>
       </c>
-      <c r="E23" s="145">
+      <c r="E23" s="140">
         <f>D23-Endlock!$F$8</f>
         <v>74</v>
       </c>
-      <c r="F23" s="145" t="s">
+      <c r="F23" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145" t="s">
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="172"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="173"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="173"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="172"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="172"/>
-      <c r="B26" s="172"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="173"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="172"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="173"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="172"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -17120,83 +17006,83 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="128" t="s">
         <v>557</v>
       </c>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="128" t="s">
         <v>561</v>
       </c>
-      <c r="D14" s="130">
+      <c r="D14" s="128">
         <v>133</v>
       </c>
-      <c r="E14" s="130">
+      <c r="E14" s="128">
         <v>2.5</v>
       </c>
-      <c r="F14" s="130">
+      <c r="F14" s="128">
         <f>D14-(2*E14)</f>
         <v>128</v>
       </c>
-      <c r="G14" s="130">
+      <c r="G14" s="128">
         <v>240000</v>
       </c>
-      <c r="H14" s="137">
+      <c r="H14" s="132">
         <v>7850</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="128" t="s">
         <v>558</v>
       </c>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="C15" s="130" t="s">
+      <c r="C15" s="128" t="s">
         <v>562</v>
       </c>
-      <c r="D15" s="130">
+      <c r="D15" s="128">
         <v>133</v>
       </c>
-      <c r="E15" s="130">
+      <c r="E15" s="128">
         <v>3</v>
       </c>
-      <c r="F15" s="130">
+      <c r="F15" s="128">
         <f t="shared" ref="F15:F16" si="7">D15-(2*E15)</f>
         <v>127</v>
       </c>
-      <c r="G15" s="130">
+      <c r="G15" s="128">
         <v>240000</v>
       </c>
-      <c r="H15" s="137">
+      <c r="H15" s="132">
         <v>7850</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="128" t="s">
         <v>559</v>
       </c>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="128" t="s">
         <v>563</v>
       </c>
-      <c r="D16" s="130">
+      <c r="D16" s="128">
         <v>168</v>
       </c>
-      <c r="E16" s="130">
+      <c r="E16" s="128">
         <v>3</v>
       </c>
-      <c r="F16" s="130">
+      <c r="F16" s="128">
         <f t="shared" si="7"/>
         <v>162</v>
       </c>
-      <c r="G16" s="130">
+      <c r="G16" s="128">
         <v>240000</v>
       </c>
-      <c r="H16" s="137">
+      <c r="H16" s="132">
         <v>7850</v>
       </c>
     </row>
@@ -19221,247 +19107,247 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A54" s="132" t="s">
+      <c r="A54" s="129" t="s">
         <v>561</v>
       </c>
-      <c r="B54" s="139" t="s">
+      <c r="B54" s="134" t="s">
         <v>557</v>
       </c>
-      <c r="C54" s="132">
+      <c r="C54" s="129">
         <v>128</v>
       </c>
-      <c r="D54" s="140">
+      <c r="D54" s="135">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="E54" s="132">
+      <c r="E54" s="129">
         <v>126</v>
       </c>
-      <c r="F54" s="132">
+      <c r="F54" s="129">
         <v>5</v>
       </c>
-      <c r="G54" s="132">
+      <c r="G54" s="129">
         <v>35.5</v>
       </c>
-      <c r="H54" s="141"/>
-      <c r="I54" s="141"/>
-      <c r="J54" s="161" t="s">
+      <c r="H54" s="136"/>
+      <c r="I54" s="136"/>
+      <c r="J54" s="151" t="s">
         <v>593</v>
       </c>
-      <c r="K54" s="141"/>
-      <c r="L54" s="141">
+      <c r="K54" s="136"/>
+      <c r="L54" s="136">
         <f t="shared" si="1"/>
         <v>111.52653920243766</v>
       </c>
-      <c r="M54" s="141"/>
-      <c r="N54" s="141">
+      <c r="M54" s="136"/>
+      <c r="N54" s="136">
         <f t="shared" si="2"/>
         <v>4.3908086300172311</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A55" s="132" t="s">
+      <c r="A55" s="129" t="s">
         <v>561</v>
       </c>
-      <c r="B55" s="139" t="s">
+      <c r="B55" s="134" t="s">
         <v>557</v>
       </c>
-      <c r="C55" s="132">
+      <c r="C55" s="129">
         <v>128</v>
       </c>
-      <c r="D55" s="140">
+      <c r="D55" s="135">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="E55" s="132">
+      <c r="E55" s="129">
         <v>126</v>
       </c>
-      <c r="F55" s="132">
+      <c r="F55" s="129">
         <v>5</v>
       </c>
-      <c r="G55" s="132">
+      <c r="G55" s="129">
         <v>45.5</v>
       </c>
-      <c r="H55" s="141"/>
-      <c r="I55" s="141"/>
-      <c r="J55" s="161" t="s">
+      <c r="H55" s="136"/>
+      <c r="I55" s="136"/>
+      <c r="J55" s="151" t="s">
         <v>593</v>
       </c>
-      <c r="K55" s="141"/>
-      <c r="L55" s="141">
+      <c r="K55" s="136"/>
+      <c r="L55" s="136">
         <f t="shared" si="1"/>
         <v>142.94246573833559</v>
       </c>
-      <c r="M55" s="141"/>
-      <c r="N55" s="141">
+      <c r="M55" s="136"/>
+      <c r="N55" s="136">
         <f t="shared" si="2"/>
         <v>5.6276561314305349</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A56" s="132" t="s">
+      <c r="A56" s="129" t="s">
         <v>562</v>
       </c>
-      <c r="B56" s="139" t="s">
+      <c r="B56" s="134" t="s">
         <v>564</v>
       </c>
-      <c r="C56" s="132">
+      <c r="C56" s="129">
         <v>127</v>
       </c>
-      <c r="D56" s="140">
+      <c r="D56" s="135">
         <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
-      <c r="E56" s="132">
+      <c r="E56" s="129">
         <v>126</v>
       </c>
-      <c r="F56" s="132">
+      <c r="F56" s="129">
         <v>5</v>
       </c>
-      <c r="G56" s="132">
+      <c r="G56" s="129">
         <v>35.5</v>
       </c>
-      <c r="H56" s="141"/>
-      <c r="I56" s="141"/>
-      <c r="J56" s="161" t="s">
+      <c r="H56" s="136"/>
+      <c r="I56" s="136"/>
+      <c r="J56" s="151" t="s">
         <v>593</v>
       </c>
-      <c r="K56" s="141"/>
-      <c r="L56" s="141">
+      <c r="K56" s="136"/>
+      <c r="L56" s="136">
         <f t="shared" si="1"/>
         <v>111.52653920243766</v>
       </c>
-      <c r="M56" s="141"/>
-      <c r="N56" s="141">
+      <c r="M56" s="136"/>
+      <c r="N56" s="136">
         <f t="shared" si="2"/>
         <v>4.3908086300172311</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A57" s="132" t="s">
+      <c r="A57" s="129" t="s">
         <v>562</v>
       </c>
-      <c r="B57" s="139" t="s">
+      <c r="B57" s="134" t="s">
         <v>564</v>
       </c>
-      <c r="C57" s="132">
+      <c r="C57" s="129">
         <v>127</v>
       </c>
-      <c r="D57" s="140">
+      <c r="D57" s="135">
         <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
-      <c r="E57" s="132">
+      <c r="E57" s="129">
         <v>126</v>
       </c>
-      <c r="F57" s="132">
+      <c r="F57" s="129">
         <v>5</v>
       </c>
-      <c r="G57" s="132">
+      <c r="G57" s="129">
         <v>45.5</v>
       </c>
-      <c r="H57" s="141"/>
-      <c r="I57" s="141"/>
-      <c r="J57" s="161" t="s">
+      <c r="H57" s="136"/>
+      <c r="I57" s="136"/>
+      <c r="J57" s="151" t="s">
         <v>593</v>
       </c>
-      <c r="K57" s="141"/>
-      <c r="L57" s="141">
+      <c r="K57" s="136"/>
+      <c r="L57" s="136">
         <f t="shared" si="1"/>
         <v>142.94246573833559</v>
       </c>
-      <c r="M57" s="141"/>
-      <c r="N57" s="141">
+      <c r="M57" s="136"/>
+      <c r="N57" s="136">
         <f t="shared" si="2"/>
         <v>5.6276561314305349</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A58" s="132" t="s">
+      <c r="A58" s="129" t="s">
         <v>563</v>
       </c>
-      <c r="B58" s="139" t="s">
+      <c r="B58" s="134" t="s">
         <v>565</v>
       </c>
-      <c r="C58" s="132">
+      <c r="C58" s="129">
         <v>162</v>
       </c>
-      <c r="D58" s="140">
+      <c r="D58" s="135">
         <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
-      <c r="E58" s="132">
+      <c r="E58" s="129">
         <v>161</v>
       </c>
-      <c r="F58" s="132">
+      <c r="F58" s="129">
         <v>8</v>
       </c>
-      <c r="G58" s="132">
+      <c r="G58" s="129">
         <v>35.5</v>
       </c>
-      <c r="H58" s="141"/>
-      <c r="I58" s="141"/>
-      <c r="J58" s="161" t="s">
+      <c r="H58" s="136"/>
+      <c r="I58" s="136"/>
+      <c r="J58" s="151" t="s">
         <v>593</v>
       </c>
-      <c r="K58" s="141"/>
-      <c r="L58" s="141">
+      <c r="K58" s="136"/>
+      <c r="L58" s="136">
         <f t="shared" si="1"/>
         <v>111.52653920243766</v>
       </c>
-      <c r="M58" s="141"/>
-      <c r="N58" s="141">
+      <c r="M58" s="136"/>
+      <c r="N58" s="136">
         <f t="shared" si="2"/>
         <v>4.3908086300172311</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A59" s="132" t="s">
+      <c r="A59" s="129" t="s">
         <v>563</v>
       </c>
-      <c r="B59" s="139" t="s">
+      <c r="B59" s="134" t="s">
         <v>565</v>
       </c>
-      <c r="C59" s="132">
+      <c r="C59" s="129">
         <v>162</v>
       </c>
-      <c r="D59" s="140">
+      <c r="D59" s="135">
         <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
-      <c r="E59" s="132">
+      <c r="E59" s="129">
         <v>161</v>
       </c>
-      <c r="F59" s="132">
+      <c r="F59" s="129">
         <v>8</v>
       </c>
-      <c r="G59" s="132">
+      <c r="G59" s="129">
         <v>45.5</v>
       </c>
-      <c r="H59" s="141"/>
-      <c r="I59" s="141"/>
-      <c r="J59" s="161" t="s">
+      <c r="H59" s="136"/>
+      <c r="I59" s="136"/>
+      <c r="J59" s="151" t="s">
         <v>593</v>
       </c>
-      <c r="K59" s="141"/>
-      <c r="L59" s="141">
+      <c r="K59" s="136"/>
+      <c r="L59" s="136">
         <f t="shared" si="1"/>
         <v>142.94246573833559</v>
       </c>
-      <c r="M59" s="141"/>
-      <c r="N59" s="141">
+      <c r="M59" s="136"/>
+      <c r="N59" s="136">
         <f t="shared" si="2"/>
         <v>5.6276561314305349</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B62" s="138"/>
+      <c r="B62" s="133"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B63" s="138"/>
+      <c r="B63" s="133"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B64" s="138"/>
+      <c r="B64" s="133"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="56"/>
@@ -20383,7 +20269,7 @@
       <c r="M11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="144" t="s">
+      <c r="N11" s="139" t="s">
         <v>571</v>
       </c>
       <c r="O11" s="5">
@@ -20445,294 +20331,294 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="142" t="s">
+      <c r="A13" s="137" t="s">
         <v>560</v>
       </c>
-      <c r="B13" s="142" t="s">
+      <c r="B13" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="C13" s="139">
+      <c r="C13" s="134">
         <v>0.01</v>
       </c>
-      <c r="D13" s="139">
+      <c r="D13" s="134">
         <v>150</v>
       </c>
-      <c r="E13" s="139" t="s">
+      <c r="E13" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="139">
+      <c r="F13" s="134">
         <v>8</v>
       </c>
-      <c r="G13" s="139">
+      <c r="G13" s="134">
         <v>230</v>
       </c>
-      <c r="H13" s="139" t="s">
+      <c r="H13" s="134" t="s">
         <v>206</v>
       </c>
-      <c r="I13" s="139">
+      <c r="I13" s="134">
         <v>69</v>
       </c>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139">
+      <c r="J13" s="134"/>
+      <c r="K13" s="134">
         <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="M13" s="139" t="s">
+      <c r="M13" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="139" t="s">
+      <c r="N13" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="132">
+      <c r="O13" s="129">
         <v>17</v>
       </c>
-      <c r="P13" s="139"/>
+      <c r="P13" s="134"/>
       <c r="Q13" s="53">
         <v>12</v>
       </c>
-      <c r="R13" s="132">
+      <c r="R13" s="129">
         <v>500</v>
       </c>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132" t="e" vm="4">
+      <c r="S13" s="129"/>
+      <c r="T13" s="129" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="U13" s="143"/>
-      <c r="V13" s="141"/>
+      <c r="U13" s="138"/>
+      <c r="V13" s="136"/>
     </row>
     <row r="14" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="137" t="s">
         <v>567</v>
       </c>
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="C14" s="139">
+      <c r="C14" s="134">
         <v>150.01</v>
       </c>
-      <c r="D14" s="139">
+      <c r="D14" s="134">
         <v>200</v>
       </c>
-      <c r="E14" s="139" t="s">
+      <c r="E14" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="139">
+      <c r="F14" s="134">
         <v>8</v>
       </c>
-      <c r="G14" s="139">
+      <c r="G14" s="134">
         <v>230</v>
       </c>
-      <c r="H14" s="139" t="s">
+      <c r="H14" s="134" t="s">
         <v>206</v>
       </c>
-      <c r="I14" s="139">
+      <c r="I14" s="134">
         <v>69</v>
       </c>
-      <c r="J14" s="139"/>
-      <c r="K14" s="139">
+      <c r="J14" s="134"/>
+      <c r="K14" s="134">
         <v>80</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="M14" s="139" t="s">
+      <c r="M14" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="139" t="s">
+      <c r="N14" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="132">
+      <c r="O14" s="129">
         <v>17</v>
       </c>
-      <c r="P14" s="139"/>
+      <c r="P14" s="134"/>
       <c r="Q14" s="53">
         <v>13.4</v>
       </c>
-      <c r="R14" s="132">
+      <c r="R14" s="129">
         <v>620</v>
       </c>
-      <c r="S14" s="132"/>
-      <c r="T14" s="132" t="e" vm="4">
+      <c r="S14" s="129"/>
+      <c r="T14" s="129" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="U14" s="143"/>
-      <c r="V14" s="141"/>
+      <c r="U14" s="138"/>
+      <c r="V14" s="136"/>
     </row>
     <row r="15" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="137" t="s">
         <v>568</v>
       </c>
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="C15" s="139">
+      <c r="C15" s="134">
         <v>200.01</v>
       </c>
-      <c r="D15" s="139">
+      <c r="D15" s="134">
         <v>250</v>
       </c>
-      <c r="E15" s="139" t="s">
+      <c r="E15" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="139">
+      <c r="F15" s="134">
         <v>8</v>
       </c>
-      <c r="G15" s="139">
+      <c r="G15" s="134">
         <v>230</v>
       </c>
-      <c r="H15" s="139" t="s">
+      <c r="H15" s="134" t="s">
         <v>206</v>
       </c>
-      <c r="I15" s="139">
+      <c r="I15" s="134">
         <v>69</v>
       </c>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139">
+      <c r="J15" s="134"/>
+      <c r="K15" s="134">
         <v>80</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="M15" s="139" t="s">
+      <c r="M15" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="139" t="s">
+      <c r="N15" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="132">
+      <c r="O15" s="129">
         <v>21</v>
       </c>
-      <c r="P15" s="139"/>
+      <c r="P15" s="134"/>
       <c r="Q15" s="53">
         <v>14</v>
       </c>
-      <c r="R15" s="132">
+      <c r="R15" s="129">
         <v>680</v>
       </c>
-      <c r="S15" s="132"/>
-      <c r="T15" s="132" t="e" vm="4">
+      <c r="S15" s="129"/>
+      <c r="T15" s="129" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="U15" s="143"/>
-      <c r="V15" s="141"/>
+      <c r="U15" s="138"/>
+      <c r="V15" s="136"/>
     </row>
     <row r="16" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="137" t="s">
         <v>569</v>
       </c>
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="C16" s="139">
+      <c r="C16" s="134">
         <v>250.01</v>
       </c>
-      <c r="D16" s="139">
+      <c r="D16" s="134">
         <v>300</v>
       </c>
-      <c r="E16" s="139" t="s">
+      <c r="E16" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="139">
+      <c r="F16" s="134">
         <v>8</v>
       </c>
-      <c r="G16" s="139">
+      <c r="G16" s="134">
         <v>230</v>
       </c>
-      <c r="H16" s="139" t="s">
+      <c r="H16" s="134" t="s">
         <v>206</v>
       </c>
-      <c r="I16" s="139">
+      <c r="I16" s="134">
         <v>68</v>
       </c>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139">
+      <c r="J16" s="134"/>
+      <c r="K16" s="134">
         <v>89</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="M16" s="139" t="s">
+      <c r="M16" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="139" t="s">
+      <c r="N16" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="132">
+      <c r="O16" s="129">
         <v>17</v>
       </c>
-      <c r="P16" s="139"/>
+      <c r="P16" s="134"/>
       <c r="Q16" s="53">
         <v>13.3</v>
       </c>
-      <c r="R16" s="132">
+      <c r="R16" s="129">
         <v>855</v>
       </c>
-      <c r="S16" s="132"/>
-      <c r="T16" s="132" t="e" vm="4">
+      <c r="S16" s="129"/>
+      <c r="T16" s="129" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="U16" s="143"/>
-      <c r="V16" s="141"/>
+      <c r="U16" s="138"/>
+      <c r="V16" s="136"/>
     </row>
     <row r="17" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="142" t="s">
+      <c r="A17" s="137" t="s">
         <v>570</v>
       </c>
-      <c r="B17" s="142" t="s">
+      <c r="B17" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="139">
+      <c r="C17" s="134">
         <v>300.01</v>
       </c>
-      <c r="D17" s="139">
+      <c r="D17" s="134">
         <v>350</v>
       </c>
-      <c r="E17" s="139" t="s">
+      <c r="E17" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="139">
+      <c r="F17" s="134">
         <v>8</v>
       </c>
-      <c r="G17" s="139">
+      <c r="G17" s="134">
         <v>230</v>
       </c>
-      <c r="H17" s="139" t="s">
+      <c r="H17" s="134" t="s">
         <v>206</v>
       </c>
-      <c r="I17" s="139">
+      <c r="I17" s="134">
         <v>85</v>
       </c>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139">
+      <c r="J17" s="134"/>
+      <c r="K17" s="134">
         <v>89</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="M17" s="139" t="s">
+      <c r="M17" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="139" t="s">
+      <c r="N17" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="132">
+      <c r="O17" s="129">
         <v>15</v>
       </c>
-      <c r="P17" s="139"/>
+      <c r="P17" s="134"/>
       <c r="Q17" s="53">
         <v>19.600000000000001</v>
       </c>
-      <c r="R17" s="132">
+      <c r="R17" s="129">
         <v>990</v>
       </c>
-      <c r="S17" s="132"/>
-      <c r="T17" s="132" t="e" vm="4">
+      <c r="S17" s="129"/>
+      <c r="T17" s="129" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="U17" s="143"/>
-      <c r="V17" s="141"/>
+      <c r="U17" s="138"/>
+      <c r="V17" s="136"/>
     </row>
     <row r="18" spans="1:22" s="99" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="96" t="s">

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28389D48-8364-4193-AD74-5E7C62398A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1F3261-87C3-44A4-B864-67B1553AF8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="1410" windowWidth="28820" windowHeight="18390" tabRatio="724" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="1410" windowWidth="28820" windowHeight="18390" tabRatio="724" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" state="hidden" r:id="rId1"/>
@@ -309,7 +309,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="8">
+  <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -324,73 +324,13 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="3"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="4"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="5"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="6"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="7"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
-  <valueMetadata count="8">
+  <valueMetadata count="2">
     <bk>
       <rc t="1" v="0"/>
     </bk>
     <bk>
       <rc t="1" v="1"/>
-    </bk>
-    <bk>
-      <rc t="1" v="2"/>
-    </bk>
-    <bk>
-      <rc t="1" v="3"/>
-    </bk>
-    <bk>
-      <rc t="1" v="4"/>
-    </bk>
-    <bk>
-      <rc t="1" v="5"/>
-    </bk>
-    <bk>
-      <rc t="1" v="6"/>
-    </bk>
-    <bk>
-      <rc t="1" v="7"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -2970,7 +2910,6 @@
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="24" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3011,9 +2950,6 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3033,6 +2969,10 @@
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="24" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{4B6C72F7-C4CA-450E-9C13-94CEF72F8B8D}"/>
@@ -3232,6 +3172,490 @@
         <a:xfrm>
           <a:off x="7632700" y="2063750"/>
           <a:ext cx="450850" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>37353</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561301</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>444929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F115825E-45D1-AA1A-B96C-F0684B7B3180}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12543118" y="2689411"/>
+          <a:ext cx="523948" cy="400106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>422518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF0D5AE-4735-381F-6F44-CAFF2EDF0638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12528177" y="3175000"/>
+          <a:ext cx="523948" cy="400106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>37353</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561301</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>422518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D34526E-B013-3FD2-1E43-198CB46E6A79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12543118" y="3683000"/>
+          <a:ext cx="523948" cy="400106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>37353</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561301</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>415047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7FCC6A2-E901-AF03-D031-C778E7454FD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12543118" y="4183529"/>
+          <a:ext cx="523948" cy="400106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12039</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>479676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C1F8DA-3FF6-3168-3D0F-3854F9903A59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12550589" y="4699000"/>
+          <a:ext cx="609685" cy="457264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609685</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>464735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2804505A-79B2-E260-AFD3-3DA225CE3566}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12505765" y="5192059"/>
+          <a:ext cx="609685" cy="457264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>632097</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>472205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1568572-2E76-3F45-9C46-9D9EC565416E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12528177" y="5707529"/>
+          <a:ext cx="609685" cy="457264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>978647</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>594743</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>479675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32EA4B83-2DF7-8930-E897-77DA56DDE609}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12490823" y="6222999"/>
+          <a:ext cx="609685" cy="457264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>508255</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>483787</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F01CE98B-88E5-5544-7D0E-B8DD0B2B4179}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12528177" y="6716059"/>
+          <a:ext cx="485843" cy="476316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485843</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>476316</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BC8C658-C48C-3489-FE4B-2D509710F563}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12505765" y="7216588"/>
+          <a:ext cx="485843" cy="476316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>508255</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>491257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF09634F-8641-3573-54B4-EABDFD13A8B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12528177" y="7739529"/>
+          <a:ext cx="485843" cy="476316"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7913,6 +8337,226 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>217475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>657317</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>471714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3098F9B7-58E1-E69D-0AE2-D7180479F0A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22696475" y="6096000"/>
+          <a:ext cx="439842" cy="471714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>634019</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>471714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Picture 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F422BF5F-A821-BFB7-A4E2-ECB743D2D1E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22723928" y="6658428"/>
+          <a:ext cx="389091" cy="417286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>181430</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>621272</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>480786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Picture 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5070C80C-0C65-1EC3-99D5-69EEDE147C17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22660430" y="7121072"/>
+          <a:ext cx="439842" cy="471714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>226787</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>607419</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Picture 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C622E19C-186A-4B4E-00E7-E127869FD23E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22705787" y="7656286"/>
+          <a:ext cx="380632" cy="408214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>199571</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>485124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="Picture 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E43C4EA-1145-7DFD-1746-9BF4D2230FF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22678571" y="8146143"/>
+          <a:ext cx="435429" cy="466981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8759,6 +9403,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>557280</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>460435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5BA1A7B-EB36-352E-2A3F-05914C30BA85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10231437" y="9445625"/>
+          <a:ext cx="485843" cy="428685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533468</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>460435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3487E2D3-9D5D-3C6A-0C32-6272499C4FD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10207625" y="8937625"/>
+          <a:ext cx="485843" cy="428685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8803,37 +9535,13 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <rv s="0">
     <v>0</v>
     <v>5</v>
   </rv>
   <rv s="0">
     <v>1</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>2</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>3</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>4</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>5</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>6</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>7</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -8852,12 +9560,6 @@
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
   <rel r:id="rId2"/>
-  <rel r:id="rId3"/>
-  <rel r:id="rId4"/>
-  <rel r:id="rId5"/>
-  <rel r:id="rId6"/>
-  <rel r:id="rId7"/>
-  <rel r:id="rId8"/>
 </richValueRels>
 </file>
 
@@ -11626,19 +12328,19 @@
       <c r="X55" s="70"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="H60" s="157" t="s">
+      <c r="H60" s="163" t="s">
         <v>481</v>
       </c>
-      <c r="I60" s="157"/>
-      <c r="J60" s="157"/>
-      <c r="K60" s="157"/>
-      <c r="L60" s="157"/>
-      <c r="M60" s="157"/>
-      <c r="N60" s="157"/>
-      <c r="O60" s="157"/>
-      <c r="P60" s="157"/>
-      <c r="Q60" s="157"/>
-      <c r="R60" s="157"/>
+      <c r="I60" s="163"/>
+      <c r="J60" s="163"/>
+      <c r="K60" s="163"/>
+      <c r="L60" s="163"/>
+      <c r="M60" s="163"/>
+      <c r="N60" s="163"/>
+      <c r="O60" s="163"/>
+      <c r="P60" s="163"/>
+      <c r="Q60" s="163"/>
+      <c r="R60" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12241,7 +12943,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12659,7 +13361,7 @@
       <c r="G17" s="74"/>
     </row>
     <row r="18" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="142" t="s">
+      <c r="A18" s="141" t="s">
         <v>572</v>
       </c>
       <c r="B18" s="129">
@@ -12671,7 +13373,7 @@
       <c r="D18" s="129">
         <v>22</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="142" t="s">
         <v>574</v>
       </c>
       <c r="F18" s="136"/>
@@ -12679,12 +13381,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="136"/>
-      <c r="I18" s="136" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
+      <c r="I18" s="136"/>
     </row>
     <row r="19" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="142" t="s">
+      <c r="A19" s="141" t="s">
         <v>573</v>
       </c>
       <c r="B19" s="129">
@@ -12696,7 +13396,7 @@
       <c r="D19" s="129">
         <v>22</v>
       </c>
-      <c r="E19" s="143" t="s">
+      <c r="E19" s="142" t="s">
         <v>574</v>
       </c>
       <c r="F19" s="136"/>
@@ -12704,9 +13404,7 @@
         <v>40</v>
       </c>
       <c r="H19" s="136"/>
-      <c r="I19" s="136" t="e" vm="8">
-        <v>#VALUE!</v>
-      </c>
+      <c r="I19" s="136"/>
     </row>
     <row r="20" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="75"/>
@@ -13482,7 +14180,7 @@
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="144" t="s">
+      <c r="A37" s="143" t="s">
         <v>575</v>
       </c>
       <c r="B37" s="129">
@@ -13506,7 +14204,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="144" t="s">
+      <c r="A38" s="143" t="s">
         <v>576</v>
       </c>
       <c r="B38" s="129">
@@ -13530,7 +14228,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="144" t="s">
+      <c r="A39" s="143" t="s">
         <v>577</v>
       </c>
       <c r="B39" s="129">
@@ -13554,7 +14252,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="144" t="s">
+      <c r="A40" s="143" t="s">
         <v>578</v>
       </c>
       <c r="B40" s="129">
@@ -13578,7 +14276,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="144" t="s">
+      <c r="A41" s="143" t="s">
         <v>579</v>
       </c>
       <c r="B41" s="129">
@@ -13602,7 +14300,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="144" t="s">
+      <c r="A42" s="143" t="s">
         <v>580</v>
       </c>
       <c r="B42" s="129">
@@ -13626,7 +14324,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C44" s="150" t="s">
+      <c r="C44" s="149" t="s">
         <v>585</v>
       </c>
     </row>
@@ -13710,14 +14408,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="163" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -14575,9 +15273,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
   <dimension ref="A1:R171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14848,26 +15546,26 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="156" t="s">
         <v>586</v>
       </c>
-      <c r="B6" s="145">
+      <c r="B6" s="74">
         <v>7.1</v>
       </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="159">
+      <c r="C6" s="146"/>
+      <c r="D6" s="157">
         <v>110</v>
       </c>
-      <c r="E6" s="159">
+      <c r="E6" s="157">
         <v>112</v>
       </c>
-      <c r="F6" s="159">
+      <c r="F6" s="157">
         <v>18</v>
       </c>
-      <c r="G6" s="160">
+      <c r="G6" s="158">
         <v>20</v>
       </c>
-      <c r="H6" s="159">
+      <c r="H6" s="157">
         <v>4500</v>
       </c>
       <c r="I6" s="74">
@@ -14877,9 +15575,6 @@
       <c r="K6" s="74">
         <v>0</v>
       </c>
-      <c r="L6" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
       <c r="M6" s="5" t="s">
         <v>25</v>
       </c>
@@ -14900,37 +15595,34 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="156" t="s">
         <v>587</v>
       </c>
-      <c r="B7" s="145">
+      <c r="B7" s="74">
         <v>9.4</v>
       </c>
-      <c r="C7" s="161"/>
-      <c r="D7" s="162">
+      <c r="C7" s="159"/>
+      <c r="D7" s="160">
         <v>110</v>
       </c>
-      <c r="E7" s="162">
+      <c r="E7" s="160">
         <v>112</v>
       </c>
-      <c r="F7" s="162">
+      <c r="F7" s="160">
         <v>18</v>
       </c>
-      <c r="G7" s="163">
+      <c r="G7" s="161">
         <v>20</v>
       </c>
-      <c r="H7" s="162">
+      <c r="H7" s="160">
         <v>6000</v>
       </c>
-      <c r="I7" s="164">
+      <c r="I7" s="162">
         <v>133</v>
       </c>
-      <c r="J7" s="164"/>
-      <c r="K7" s="164">
+      <c r="J7" s="162"/>
+      <c r="K7" s="162">
         <v>0</v>
-      </c>
-      <c r="L7" t="e" vm="1">
-        <v>#VALUE!</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>25</v>
@@ -14952,26 +15644,26 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="156" t="s">
         <v>588</v>
       </c>
-      <c r="B8" s="145">
+      <c r="B8" s="74">
         <v>11.7</v>
       </c>
-      <c r="C8" s="147"/>
-      <c r="D8" s="159">
+      <c r="C8" s="146"/>
+      <c r="D8" s="157">
         <v>110</v>
       </c>
-      <c r="E8" s="159">
+      <c r="E8" s="157">
         <v>112</v>
       </c>
-      <c r="F8" s="159">
+      <c r="F8" s="157">
         <v>18</v>
       </c>
-      <c r="G8" s="160">
+      <c r="G8" s="158">
         <v>20</v>
       </c>
-      <c r="H8" s="159">
+      <c r="H8" s="157">
         <v>10000</v>
       </c>
       <c r="I8" s="74">
@@ -14981,9 +15673,6 @@
       <c r="K8" s="74">
         <v>0</v>
       </c>
-      <c r="L8" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
       <c r="M8" s="5" t="s">
         <v>25</v>
       </c>
@@ -15004,37 +15693,34 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="158" t="s">
+      <c r="A9" s="156" t="s">
         <v>589</v>
       </c>
-      <c r="B9" s="145">
-        <v>14.2</v>
-      </c>
-      <c r="C9" s="161"/>
-      <c r="D9" s="162">
+      <c r="B9" s="74">
+        <v>14</v>
+      </c>
+      <c r="C9" s="159"/>
+      <c r="D9" s="160">
         <v>110</v>
       </c>
-      <c r="E9" s="162">
+      <c r="E9" s="160">
         <v>112</v>
       </c>
-      <c r="F9" s="162">
+      <c r="F9" s="160">
         <v>18</v>
       </c>
-      <c r="G9" s="163">
+      <c r="G9" s="161">
         <v>20</v>
       </c>
-      <c r="H9" s="162">
+      <c r="H9" s="160">
         <v>13500</v>
       </c>
-      <c r="I9" s="164">
+      <c r="I9" s="162">
         <v>133</v>
       </c>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164">
+      <c r="J9" s="162"/>
+      <c r="K9" s="162">
         <v>0</v>
-      </c>
-      <c r="L9" t="e" vm="1">
-        <v>#VALUE!</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>25</v>
@@ -15056,26 +15742,26 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="156" t="s">
         <v>586</v>
       </c>
-      <c r="B10" s="145">
+      <c r="B10" s="74">
         <v>7.1</v>
       </c>
-      <c r="C10" s="147"/>
-      <c r="D10" s="159">
+      <c r="C10" s="146"/>
+      <c r="D10" s="157">
         <v>110</v>
       </c>
-      <c r="E10" s="159">
+      <c r="E10" s="157">
         <v>112</v>
       </c>
-      <c r="F10" s="159">
+      <c r="F10" s="157">
         <v>18</v>
       </c>
-      <c r="G10" s="160">
+      <c r="G10" s="158">
         <v>20</v>
       </c>
-      <c r="H10" s="159">
+      <c r="H10" s="157">
         <v>4500</v>
       </c>
       <c r="I10" s="74">
@@ -15085,9 +15771,6 @@
       <c r="K10" s="74">
         <v>0</v>
       </c>
-      <c r="L10" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
       <c r="M10" s="108" t="s">
         <v>20</v>
       </c>
@@ -15108,37 +15791,34 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="158" t="s">
+      <c r="A11" s="156" t="s">
         <v>587</v>
       </c>
-      <c r="B11" s="145">
+      <c r="B11" s="74">
         <v>9.4</v>
       </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="162">
+      <c r="C11" s="159"/>
+      <c r="D11" s="160">
         <v>110</v>
       </c>
-      <c r="E11" s="162">
+      <c r="E11" s="160">
         <v>112</v>
       </c>
-      <c r="F11" s="162">
+      <c r="F11" s="160">
         <v>18</v>
       </c>
-      <c r="G11" s="163">
+      <c r="G11" s="161">
         <v>20</v>
       </c>
-      <c r="H11" s="162">
+      <c r="H11" s="160">
         <v>6000</v>
       </c>
-      <c r="I11" s="164">
+      <c r="I11" s="162">
         <v>133</v>
       </c>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164">
+      <c r="J11" s="162"/>
+      <c r="K11" s="162">
         <v>0</v>
-      </c>
-      <c r="L11" t="e" vm="2">
-        <v>#VALUE!</v>
       </c>
       <c r="M11" s="108" t="s">
         <v>20</v>
@@ -15160,26 +15840,26 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="156" t="s">
         <v>588</v>
       </c>
-      <c r="B12" s="145">
+      <c r="B12" s="74">
         <v>11.7</v>
       </c>
-      <c r="C12" s="147"/>
-      <c r="D12" s="159">
+      <c r="C12" s="146"/>
+      <c r="D12" s="157">
         <v>110</v>
       </c>
-      <c r="E12" s="159">
+      <c r="E12" s="157">
         <v>112</v>
       </c>
-      <c r="F12" s="159">
+      <c r="F12" s="157">
         <v>18</v>
       </c>
-      <c r="G12" s="160">
+      <c r="G12" s="158">
         <v>20</v>
       </c>
-      <c r="H12" s="159">
+      <c r="H12" s="157">
         <v>10000</v>
       </c>
       <c r="I12" s="74">
@@ -15189,9 +15869,6 @@
       <c r="K12" s="74">
         <v>0</v>
       </c>
-      <c r="L12" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
       <c r="M12" s="108" t="s">
         <v>20</v>
       </c>
@@ -15212,37 +15889,34 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="158" t="s">
+      <c r="A13" s="156" t="s">
         <v>589</v>
       </c>
-      <c r="B13" s="145">
-        <v>14.1</v>
-      </c>
-      <c r="C13" s="161"/>
-      <c r="D13" s="162">
+      <c r="B13" s="74">
+        <v>14</v>
+      </c>
+      <c r="C13" s="159"/>
+      <c r="D13" s="160">
         <v>110</v>
       </c>
-      <c r="E13" s="162">
+      <c r="E13" s="160">
         <v>112</v>
       </c>
-      <c r="F13" s="162">
+      <c r="F13" s="160">
         <v>18</v>
       </c>
-      <c r="G13" s="163">
+      <c r="G13" s="161">
         <v>20</v>
       </c>
-      <c r="H13" s="162">
+      <c r="H13" s="160">
         <v>13500</v>
       </c>
-      <c r="I13" s="164">
+      <c r="I13" s="162">
         <v>133</v>
       </c>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164">
+      <c r="J13" s="162"/>
+      <c r="K13" s="162">
         <v>0</v>
-      </c>
-      <c r="L13" t="e" vm="2">
-        <v>#VALUE!</v>
       </c>
       <c r="M13" s="108" t="s">
         <v>20</v>
@@ -15264,26 +15938,26 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="158" t="s">
+      <c r="A14" s="156" t="s">
         <v>590</v>
       </c>
-      <c r="B14" s="145">
+      <c r="B14" s="74">
         <v>5.6</v>
       </c>
-      <c r="C14" s="147"/>
-      <c r="D14" s="159">
+      <c r="C14" s="146"/>
+      <c r="D14" s="157">
         <v>110</v>
       </c>
-      <c r="E14" s="159">
+      <c r="E14" s="157">
         <v>112</v>
       </c>
-      <c r="F14" s="159">
+      <c r="F14" s="157">
         <v>18</v>
       </c>
-      <c r="G14" s="160">
+      <c r="G14" s="158">
         <v>20</v>
       </c>
-      <c r="H14" s="159">
+      <c r="H14" s="157">
         <v>4500</v>
       </c>
       <c r="I14" s="74">
@@ -15293,9 +15967,6 @@
       <c r="K14" s="74">
         <v>33</v>
       </c>
-      <c r="L14" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
       <c r="M14" s="108" t="s">
         <v>20</v>
       </c>
@@ -15316,37 +15987,34 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="158" t="s">
+      <c r="A15" s="156" t="s">
         <v>591</v>
       </c>
-      <c r="B15" s="145">
+      <c r="B15" s="74">
         <v>7.4</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="162">
+      <c r="C15" s="159"/>
+      <c r="D15" s="160">
         <v>110</v>
       </c>
-      <c r="E15" s="162">
+      <c r="E15" s="160">
         <v>112</v>
       </c>
-      <c r="F15" s="162">
+      <c r="F15" s="160">
         <v>18</v>
       </c>
-      <c r="G15" s="163">
+      <c r="G15" s="161">
         <v>20</v>
       </c>
-      <c r="H15" s="162">
+      <c r="H15" s="160">
         <v>6000</v>
       </c>
-      <c r="I15" s="164">
+      <c r="I15" s="162">
         <v>133</v>
       </c>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164">
+      <c r="J15" s="162"/>
+      <c r="K15" s="162">
         <v>33</v>
-      </c>
-      <c r="L15" t="e" vm="3">
-        <v>#VALUE!</v>
       </c>
       <c r="M15" s="108" t="s">
         <v>20</v>
@@ -15368,26 +16036,26 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="156" t="s">
         <v>592</v>
       </c>
-      <c r="B16" s="145">
+      <c r="B16" s="74">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C16" s="147"/>
-      <c r="D16" s="159">
+      <c r="C16" s="146"/>
+      <c r="D16" s="157">
         <v>110</v>
       </c>
-      <c r="E16" s="159">
+      <c r="E16" s="157">
         <v>112</v>
       </c>
-      <c r="F16" s="159">
+      <c r="F16" s="157">
         <v>18</v>
       </c>
-      <c r="G16" s="160">
+      <c r="G16" s="158">
         <v>20</v>
       </c>
-      <c r="H16" s="159">
+      <c r="H16" s="157">
         <v>1200</v>
       </c>
       <c r="I16" s="74">
@@ -15396,9 +16064,6 @@
       <c r="J16" s="74"/>
       <c r="K16" s="74">
         <v>33</v>
-      </c>
-      <c r="L16" t="e" vm="3">
-        <v>#VALUE!</v>
       </c>
       <c r="M16" s="108" t="s">
         <v>20</v>
@@ -15585,7 +16250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB485315-044F-4FB0-A3DD-44B741CAB625}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -15612,7 +16277,7 @@
       <c r="C1" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="146" t="s">
+      <c r="D1" s="145" t="s">
         <v>128</v>
       </c>
       <c r="E1" s="121" t="s">
@@ -15624,7 +16289,7 @@
       <c r="G1" s="126" t="s">
         <v>502</v>
       </c>
-      <c r="H1" s="156" t="s">
+      <c r="H1" s="155" t="s">
         <v>548</v>
       </c>
       <c r="I1" s="127" t="s">
@@ -15762,7 +16427,7 @@
       <c r="A5" s="136" t="s">
         <v>549</v>
       </c>
-      <c r="B5" s="149">
+      <c r="B5" s="148">
         <v>2.8730000000000002</v>
       </c>
       <c r="C5" s="129">
@@ -15812,7 +16477,7 @@
       <c r="A6" s="136" t="s">
         <v>551</v>
       </c>
-      <c r="B6" s="149">
+      <c r="B6" s="148">
         <f>B5+1.539</f>
         <v>4.4119999999999999</v>
       </c>
@@ -15863,7 +16528,7 @@
       <c r="A7" s="136" t="s">
         <v>550</v>
       </c>
-      <c r="B7" s="149">
+      <c r="B7" s="148">
         <f>B5+2*1.539</f>
         <v>5.9510000000000005</v>
       </c>
@@ -15911,49 +16576,49 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D8" s="145"/>
+      <c r="D8" s="144"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D9" s="145"/>
+      <c r="D9" s="144"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D10" s="145"/>
+      <c r="D10" s="144"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D11" s="145"/>
+      <c r="D11" s="144"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D12" s="145"/>
+      <c r="D12" s="144"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D13" s="145"/>
+      <c r="D13" s="144"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D14" s="145"/>
+      <c r="D14" s="144"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D15" s="145"/>
+      <c r="D15" s="144"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D16" s="148"/>
+      <c r="D16" s="147"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D17" s="145"/>
+      <c r="D17" s="144"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="148"/>
+      <c r="D18" s="147"/>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D38" s="145"/>
+      <c r="D38" s="144"/>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D39" s="148"/>
+      <c r="D39" s="147"/>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D40" s="145"/>
+      <c r="D40" s="144"/>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D41" s="148"/>
+      <c r="D41" s="147"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16106,7 +16771,7 @@
       <c r="D6" s="136" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="154">
+      <c r="E6" s="153">
         <v>25</v>
       </c>
       <c r="F6" s="129">
@@ -16115,15 +16780,15 @@
       <c r="G6" s="129">
         <v>8</v>
       </c>
-      <c r="H6" s="152" t="s">
+      <c r="H6" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141" t="s">
+      <c r="I6" s="140"/>
+      <c r="J6" s="140" t="s">
         <v>581</v>
       </c>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="136" t="s">
@@ -16135,7 +16800,7 @@
       <c r="D7" s="136" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="154">
+      <c r="E7" s="153">
         <v>24</v>
       </c>
       <c r="F7" s="129">
@@ -16144,15 +16809,15 @@
       <c r="G7" s="129">
         <v>13</v>
       </c>
-      <c r="H7" s="152" t="s">
+      <c r="H7" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141" t="s">
+      <c r="I7" s="140"/>
+      <c r="J7" s="140" t="s">
         <v>581</v>
       </c>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="136" t="s">
@@ -16164,7 +16829,7 @@
       <c r="D8" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="154">
+      <c r="E8" s="153">
         <v>15</v>
       </c>
       <c r="F8" s="129">
@@ -16173,15 +16838,15 @@
       <c r="G8" s="129">
         <v>6</v>
       </c>
-      <c r="H8" s="153" t="s">
+      <c r="H8" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141" t="s">
+      <c r="I8" s="140"/>
+      <c r="J8" s="140" t="s">
         <v>584</v>
       </c>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16526,107 +17191,107 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="141" t="s">
+      <c r="A18" s="140" t="s">
         <v>553</v>
       </c>
-      <c r="B18" s="141" t="str">
+      <c r="B18" s="140" t="str">
         <f>A18</f>
         <v>FTFM 40</v>
       </c>
-      <c r="C18" s="140" t="s">
+      <c r="C18" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="140">
+      <c r="D18" s="139">
         <v>40</v>
       </c>
-      <c r="E18" s="155">
+      <c r="E18" s="154">
         <v>0</v>
       </c>
-      <c r="F18" s="140" t="s">
+      <c r="F18" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140" t="s">
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="141" t="s">
+      <c r="A20" s="140" t="s">
         <v>556</v>
       </c>
-      <c r="B20" s="141" t="str">
+      <c r="B20" s="140" t="str">
         <f>A20</f>
         <v>FTFM 60</v>
       </c>
-      <c r="C20" s="140" t="s">
+      <c r="C20" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="140">
+      <c r="D20" s="139">
         <v>60</v>
       </c>
-      <c r="E20" s="140">
+      <c r="E20" s="139">
         <v>49.5</v>
       </c>
-      <c r="F20" s="140" t="s">
+      <c r="F20" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140" t="s">
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="141" t="s">
+      <c r="A21" s="140" t="s">
         <v>554</v>
       </c>
-      <c r="B21" s="141" t="str">
+      <c r="B21" s="140" t="str">
         <f>A21</f>
         <v>FTFM 80</v>
       </c>
-      <c r="C21" s="140" t="s">
+      <c r="C21" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="140">
+      <c r="D21" s="139">
         <v>80</v>
       </c>
-      <c r="E21" s="140">
+      <c r="E21" s="139">
         <v>64.5</v>
       </c>
-      <c r="F21" s="140" t="s">
+      <c r="F21" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140" t="s">
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="141" t="s">
+      <c r="A23" s="140" t="s">
         <v>555</v>
       </c>
-      <c r="B23" s="141" t="str">
+      <c r="B23" s="140" t="str">
         <f>A23</f>
         <v>FTFM 80 Wind</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="140">
+      <c r="D23" s="139">
         <v>80</v>
       </c>
-      <c r="E23" s="140">
+      <c r="E23" s="139">
         <f>D23-Endlock!$F$8</f>
         <v>74</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140" t="s">
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139" t="s">
         <v>547</v>
       </c>
     </row>
@@ -19131,7 +19796,7 @@
       </c>
       <c r="H54" s="136"/>
       <c r="I54" s="136"/>
-      <c r="J54" s="151" t="s">
+      <c r="J54" s="150" t="s">
         <v>593</v>
       </c>
       <c r="K54" s="136"/>
@@ -19170,7 +19835,7 @@
       </c>
       <c r="H55" s="136"/>
       <c r="I55" s="136"/>
-      <c r="J55" s="151" t="s">
+      <c r="J55" s="150" t="s">
         <v>593</v>
       </c>
       <c r="K55" s="136"/>
@@ -19209,7 +19874,7 @@
       </c>
       <c r="H56" s="136"/>
       <c r="I56" s="136"/>
-      <c r="J56" s="151" t="s">
+      <c r="J56" s="150" t="s">
         <v>593</v>
       </c>
       <c r="K56" s="136"/>
@@ -19248,7 +19913,7 @@
       </c>
       <c r="H57" s="136"/>
       <c r="I57" s="136"/>
-      <c r="J57" s="151" t="s">
+      <c r="J57" s="150" t="s">
         <v>593</v>
       </c>
       <c r="K57" s="136"/>
@@ -19287,7 +19952,7 @@
       </c>
       <c r="H58" s="136"/>
       <c r="I58" s="136"/>
-      <c r="J58" s="151" t="s">
+      <c r="J58" s="150" t="s">
         <v>593</v>
       </c>
       <c r="K58" s="136"/>
@@ -19326,7 +19991,7 @@
       </c>
       <c r="H59" s="136"/>
       <c r="I59" s="136"/>
-      <c r="J59" s="151" t="s">
+      <c r="J59" s="150" t="s">
         <v>593</v>
       </c>
       <c r="K59" s="136"/>
@@ -19728,7 +20393,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20269,7 +20934,7 @@
       <c r="M11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="139" t="s">
+      <c r="N11" s="138" t="s">
         <v>571</v>
       </c>
       <c r="O11" s="5">
@@ -20381,11 +21046,9 @@
       <c r="R13" s="129">
         <v>500</v>
       </c>
-      <c r="S13" s="129"/>
-      <c r="T13" s="129" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-      <c r="U13" s="138"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="164"/>
       <c r="V13" s="136"/>
     </row>
     <row r="14" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -20439,11 +21102,9 @@
       <c r="R14" s="129">
         <v>620</v>
       </c>
-      <c r="S14" s="129"/>
-      <c r="T14" s="129" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-      <c r="U14" s="138"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="128"/>
+      <c r="U14" s="164"/>
       <c r="V14" s="136"/>
     </row>
     <row r="15" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -20497,11 +21158,9 @@
       <c r="R15" s="129">
         <v>680</v>
       </c>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-      <c r="U15" s="138"/>
+      <c r="S15" s="128"/>
+      <c r="T15" s="128"/>
+      <c r="U15" s="164"/>
       <c r="V15" s="136"/>
     </row>
     <row r="16" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -20555,11 +21214,9 @@
       <c r="R16" s="129">
         <v>855</v>
       </c>
-      <c r="S16" s="129"/>
-      <c r="T16" s="129" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-      <c r="U16" s="138"/>
+      <c r="S16" s="128"/>
+      <c r="T16" s="128"/>
+      <c r="U16" s="164"/>
       <c r="V16" s="136"/>
     </row>
     <row r="17" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -20613,11 +21270,9 @@
       <c r="R17" s="129">
         <v>990</v>
       </c>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-      <c r="U17" s="138"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="164"/>
       <c r="V17" s="136"/>
     </row>
     <row r="18" spans="1:22" s="99" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -25053,7 +25708,7 @@
       <c r="S107" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="T107" s="55" t="e" vm="5">
+      <c r="T107" s="55" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="U107" s="123"/>
@@ -25544,7 +26199,7 @@
       <c r="S116" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="T116" t="e" vm="6">
+      <c r="T116" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\LT calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC25C52-AE02-4747-B83E-2FDE59B8423A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE78186-4AC7-469E-BDFB-7540C8FD9C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="1490" windowWidth="28030" windowHeight="18390" tabRatio="905" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7290" yWindow="1640" windowWidth="28030" windowHeight="18390" tabRatio="905" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -829,7 +829,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="618">
   <si>
     <t>This over view explaines the working of this file and how it feeds information to the online calculator.</t>
   </si>
@@ -2656,17 +2656,45 @@
   </si>
   <si>
     <t xml:space="preserve">FTFM Bottom Lath with 2 angle reinforcement </t>
+  </si>
+  <si>
+    <t>110mm plastic if 60 guide</t>
+  </si>
+  <si>
+    <t>110mm</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>110mm plastic if 80 guide</t>
+  </si>
+  <si>
+    <t>110mm wind</t>
+  </si>
+  <si>
+    <t>FTFM 40</t>
+  </si>
+  <si>
+    <t>FTFM 60</t>
+  </si>
+  <si>
+    <t>FTFM 80</t>
+  </si>
+  <si>
+    <t>FTFM 80 Wind</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -2980,14 +3008,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3355,11 +3384,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{4B6C72F7-C4CA-450E-9C13-94CEF72F8B8D}"/>
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Currency 2" xfId="4" xr:uid="{8FD1DF05-519B-4CDE-BDB7-50748F1E046D}"/>
+    <cellStyle name="Currency 3" xfId="5" xr:uid="{B0FB0586-D208-4CD6-B686-A26FF6496E80}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{51BAEE36-5A10-4116-91F7-14A2F23EB466}"/>
   </cellStyles>
@@ -22600,7 +22638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB485315-044F-4FB0-A3DD-44B741CAB625}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -23135,15 +23173,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A45B228-839B-4CA5-9448-9CA1774CB22C}">
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.81640625" customWidth="1"/>
     <col min="4" max="4" width="10.7265625" customWidth="1"/>
     <col min="5" max="5" width="14" style="4" bestFit="1" customWidth="1"/>
@@ -23417,6 +23455,75 @@
         <v>123</v>
       </c>
     </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="138" t="s">
+        <v>609</v>
+      </c>
+      <c r="C16" s="138" t="s">
+        <v>610</v>
+      </c>
+      <c r="D16" s="138" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="137">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F16" s="137">
+        <v>12</v>
+      </c>
+      <c r="G16" s="137">
+        <v>8</v>
+      </c>
+      <c r="H16" s="138" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="138" t="s">
+        <v>612</v>
+      </c>
+      <c r="C17" s="138" t="s">
+        <v>610</v>
+      </c>
+      <c r="D17" s="138" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="137">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F17" s="137">
+        <v>12</v>
+      </c>
+      <c r="G17" s="137">
+        <v>13</v>
+      </c>
+      <c r="H17" s="138" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="138" t="s">
+        <v>613</v>
+      </c>
+      <c r="C18" s="138" t="s">
+        <v>610</v>
+      </c>
+      <c r="D18" s="138" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="137">
+        <v>0.151</v>
+      </c>
+      <c r="F18" s="137">
+        <v>6</v>
+      </c>
+      <c r="G18" s="137">
+        <v>6</v>
+      </c>
+      <c r="H18" s="138" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23426,10 +23533,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0CC1CC-64D0-4115-AE5E-AF959282EFAA}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23870,6 +23977,106 @@
       </c>
       <c r="J16" t="s">
         <v>577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="140" t="s">
+        <v>614</v>
+      </c>
+      <c r="B17" s="140" t="s">
+        <v>614</v>
+      </c>
+      <c r="C17" s="139" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="139">
+        <v>40</v>
+      </c>
+      <c r="E17" s="139">
+        <v>0</v>
+      </c>
+      <c r="F17" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="140" t="s">
+        <v>615</v>
+      </c>
+      <c r="B19" s="140" t="s">
+        <v>615</v>
+      </c>
+      <c r="C19" s="139" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="139">
+        <v>60</v>
+      </c>
+      <c r="E19" s="139">
+        <v>49.5</v>
+      </c>
+      <c r="F19" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="140" t="s">
+        <v>616</v>
+      </c>
+      <c r="B20" s="140" t="s">
+        <v>616</v>
+      </c>
+      <c r="C20" s="139" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="139">
+        <v>80</v>
+      </c>
+      <c r="E20" s="139">
+        <v>64.5</v>
+      </c>
+      <c r="F20" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="140" t="s">
+        <v>617</v>
+      </c>
+      <c r="B22" s="140" t="s">
+        <v>617</v>
+      </c>
+      <c r="C22" s="139" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="139">
+        <v>80</v>
+      </c>
+      <c r="E22" s="139">
+        <v>74</v>
+      </c>
+      <c r="F22" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\LT calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D38B591-A1E2-43B3-A9B6-36684866F505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0DC87E-2ECE-44F7-A702-E7F2C005B124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="680" windowWidth="23420" windowHeight="19260" tabRatio="905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8530" yWindow="800" windowWidth="23420" windowHeight="19260" tabRatio="905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -2626,9 +2626,6 @@
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2675,6 +2672,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9268,19 +9268,19 @@
       <c r="X55" s="58"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="H60" s="105" t="s">
+      <c r="H60" s="123" t="s">
         <v>298</v>
       </c>
-      <c r="I60" s="105"/>
-      <c r="J60" s="105"/>
-      <c r="K60" s="105"/>
-      <c r="L60" s="105"/>
-      <c r="M60" s="105"/>
-      <c r="N60" s="105"/>
-      <c r="O60" s="105"/>
-      <c r="P60" s="105"/>
-      <c r="Q60" s="105"/>
-      <c r="R60" s="105"/>
+      <c r="I60" s="123"/>
+      <c r="J60" s="123"/>
+      <c r="K60" s="123"/>
+      <c r="L60" s="123"/>
+      <c r="M60" s="123"/>
+      <c r="N60" s="123"/>
+      <c r="O60" s="123"/>
+      <c r="P60" s="123"/>
+      <c r="Q60" s="123"/>
+      <c r="R60" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9937,7 +9937,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="105" t="s">
         <v>378</v>
       </c>
       <c r="B2" s="96">
@@ -9949,7 +9949,7 @@
       <c r="D2" s="96">
         <v>22</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="106" t="s">
         <v>379</v>
       </c>
       <c r="F2" s="99"/>
@@ -9959,7 +9959,7 @@
       <c r="H2" s="99"/>
     </row>
     <row r="3" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="105" t="s">
         <v>380</v>
       </c>
       <c r="B3" s="96">
@@ -9971,7 +9971,7 @@
       <c r="D3" s="96">
         <v>22</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="106" t="s">
         <v>379</v>
       </c>
       <c r="F3" s="99"/>
@@ -10072,7 +10072,7 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="107" t="s">
         <v>381</v>
       </c>
       <c r="B3" s="96">
@@ -10096,7 +10096,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="107" t="s">
         <v>382</v>
       </c>
       <c r="B4" s="96">
@@ -10120,7 +10120,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="107" t="s">
         <v>383</v>
       </c>
       <c r="B5" s="96">
@@ -10144,7 +10144,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="107" t="s">
         <v>384</v>
       </c>
       <c r="B6" s="96">
@@ -10168,7 +10168,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="107" t="s">
         <v>385</v>
       </c>
       <c r="B7" s="96">
@@ -10192,7 +10192,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="107" t="s">
         <v>386</v>
       </c>
       <c r="B8" s="96">
@@ -10296,14 +10296,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="123" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -11206,7 +11206,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="R4" sqref="R4:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11303,13 +11303,13 @@
     </row>
     <row r="3" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="109" t="s">
         <v>396</v>
       </c>
       <c r="B4" s="101">
         <v>9.4</v>
       </c>
-      <c r="C4" s="111"/>
+      <c r="C4" s="110"/>
       <c r="D4" s="101">
         <v>110</v>
       </c>
@@ -11319,7 +11319,7 @@
       <c r="F4" s="101">
         <v>18</v>
       </c>
-      <c r="G4" s="112">
+      <c r="G4" s="111">
         <v>20</v>
       </c>
       <c r="H4" s="101">
@@ -11348,30 +11348,30 @@
         <v>23</v>
       </c>
       <c r="R4" s="91" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="B5" s="113">
+      <c r="B5" s="112">
         <v>11.7</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="113">
+      <c r="C5" s="113"/>
+      <c r="D5" s="112">
         <v>110</v>
       </c>
-      <c r="E5" s="113">
+      <c r="E5" s="112">
         <v>112</v>
       </c>
-      <c r="F5" s="113">
+      <c r="F5" s="112">
         <v>18</v>
       </c>
-      <c r="G5" s="115">
+      <c r="G5" s="114">
         <v>20</v>
       </c>
-      <c r="H5" s="113">
+      <c r="H5" s="112">
         <v>10000</v>
       </c>
       <c r="I5" s="3">
@@ -11396,17 +11396,17 @@
         <v>23</v>
       </c>
       <c r="R5" s="91" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="109" t="s">
         <v>398</v>
       </c>
       <c r="B6" s="101">
         <v>14</v>
       </c>
-      <c r="C6" s="111"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="101">
         <v>110</v>
       </c>
@@ -11416,7 +11416,7 @@
       <c r="F6" s="101">
         <v>18</v>
       </c>
-      <c r="G6" s="112">
+      <c r="G6" s="111">
         <v>20</v>
       </c>
       <c r="H6" s="101">
@@ -11445,30 +11445,30 @@
         <v>23</v>
       </c>
       <c r="R6" s="91" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="B7" s="113">
+      <c r="B7" s="112">
         <v>7.1</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="113">
+      <c r="C7" s="113"/>
+      <c r="D7" s="112">
         <v>110</v>
       </c>
-      <c r="E7" s="113">
+      <c r="E7" s="112">
         <v>112</v>
       </c>
-      <c r="F7" s="113">
+      <c r="F7" s="112">
         <v>18</v>
       </c>
-      <c r="G7" s="115">
+      <c r="G7" s="114">
         <v>20</v>
       </c>
-      <c r="H7" s="113">
+      <c r="H7" s="112">
         <v>4500</v>
       </c>
       <c r="I7" s="3">
@@ -11493,17 +11493,17 @@
         <v>23</v>
       </c>
       <c r="R7" s="91" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="109" t="s">
         <v>401</v>
       </c>
       <c r="B8" s="101">
         <v>9.4</v>
       </c>
-      <c r="C8" s="111"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="101">
         <v>110</v>
       </c>
@@ -11513,7 +11513,7 @@
       <c r="F8" s="101">
         <v>18</v>
       </c>
-      <c r="G8" s="112">
+      <c r="G8" s="111">
         <v>20</v>
       </c>
       <c r="H8" s="101">
@@ -11542,30 +11542,30 @@
         <v>23</v>
       </c>
       <c r="R8" s="91" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="B9" s="113">
+      <c r="B9" s="112">
         <v>11.7</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="113">
+      <c r="C9" s="113"/>
+      <c r="D9" s="112">
         <v>110</v>
       </c>
-      <c r="E9" s="113">
+      <c r="E9" s="112">
         <v>112</v>
       </c>
-      <c r="F9" s="113">
+      <c r="F9" s="112">
         <v>18</v>
       </c>
-      <c r="G9" s="115">
+      <c r="G9" s="114">
         <v>20</v>
       </c>
-      <c r="H9" s="113">
+      <c r="H9" s="112">
         <v>10000</v>
       </c>
       <c r="I9" s="3">
@@ -11590,17 +11590,17 @@
         <v>23</v>
       </c>
       <c r="R9" s="91" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="109" t="s">
         <v>403</v>
       </c>
       <c r="B10" s="101">
         <v>14</v>
       </c>
-      <c r="C10" s="111"/>
+      <c r="C10" s="110"/>
       <c r="D10" s="101">
         <v>110</v>
       </c>
@@ -11610,7 +11610,7 @@
       <c r="F10" s="101">
         <v>18</v>
       </c>
-      <c r="G10" s="112">
+      <c r="G10" s="111">
         <v>20</v>
       </c>
       <c r="H10" s="101">
@@ -11639,37 +11639,37 @@
         <v>23</v>
       </c>
       <c r="R10" s="91" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="115" t="s">
         <v>404</v>
       </c>
-      <c r="B11" s="117">
+      <c r="B11" s="116">
         <v>5.6</v>
       </c>
       <c r="C11" s="95"/>
-      <c r="D11" s="117">
+      <c r="D11" s="116">
         <v>110</v>
       </c>
-      <c r="E11" s="117">
+      <c r="E11" s="116">
         <v>112</v>
       </c>
-      <c r="F11" s="117">
+      <c r="F11" s="116">
         <v>18</v>
       </c>
-      <c r="G11" s="118">
+      <c r="G11" s="117">
         <v>20</v>
       </c>
-      <c r="H11" s="117">
+      <c r="H11" s="116">
         <v>4500</v>
       </c>
-      <c r="I11" s="119">
+      <c r="I11" s="118">
         <v>133</v>
       </c>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119">
+      <c r="J11" s="118"/>
+      <c r="K11" s="118">
         <v>33</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -11688,37 +11688,37 @@
         <v>23</v>
       </c>
       <c r="R11" s="91" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="119" t="s">
         <v>405</v>
       </c>
       <c r="B12" s="101">
         <v>7.4</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="121">
+      <c r="C12" s="110"/>
+      <c r="D12" s="120">
         <v>110</v>
       </c>
-      <c r="E12" s="121">
+      <c r="E12" s="120">
         <v>112</v>
       </c>
-      <c r="F12" s="121">
+      <c r="F12" s="120">
         <v>18</v>
       </c>
-      <c r="G12" s="122">
+      <c r="G12" s="121">
         <v>20</v>
       </c>
-      <c r="H12" s="121">
+      <c r="H12" s="120">
         <v>6000</v>
       </c>
-      <c r="I12" s="123">
+      <c r="I12" s="122">
         <v>133</v>
       </c>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123">
+      <c r="J12" s="122"/>
+      <c r="K12" s="122">
         <v>33</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -11737,37 +11737,37 @@
         <v>23</v>
       </c>
       <c r="R12" s="91" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="115" t="s">
         <v>406</v>
       </c>
-      <c r="B13" s="117">
+      <c r="B13" s="116">
         <v>9.1999999999999993</v>
       </c>
       <c r="C13" s="95"/>
-      <c r="D13" s="117">
+      <c r="D13" s="116">
         <v>110</v>
       </c>
-      <c r="E13" s="117">
+      <c r="E13" s="116">
         <v>112</v>
       </c>
-      <c r="F13" s="117">
+      <c r="F13" s="116">
         <v>18</v>
       </c>
-      <c r="G13" s="118">
+      <c r="G13" s="117">
         <v>20</v>
       </c>
-      <c r="H13" s="117">
+      <c r="H13" s="116">
         <v>1200</v>
       </c>
-      <c r="I13" s="119">
+      <c r="I13" s="118">
         <v>133</v>
       </c>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119">
+      <c r="J13" s="118"/>
+      <c r="K13" s="118">
         <v>33</v>
       </c>
       <c r="M13" s="3" t="s">
@@ -11786,7 +11786,7 @@
         <v>23</v>
       </c>
       <c r="R13" s="91" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11962,7 +11962,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12474,16 +12474,16 @@
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B45" s="105"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
+      <c r="J45" s="123"/>
+      <c r="K45" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13073,7 +13073,7 @@
       <c r="C4" s="96">
         <v>128</v>
       </c>
-      <c r="D4" s="109">
+      <c r="D4" s="108">
         <f t="shared" ref="D4:D9" si="0">(E4-C4)/2</f>
         <v>-1</v>
       </c>
@@ -13110,7 +13110,7 @@
       <c r="C5" s="96">
         <v>128</v>
       </c>
-      <c r="D5" s="109">
+      <c r="D5" s="108">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -13147,7 +13147,7 @@
       <c r="C6" s="96">
         <v>127</v>
       </c>
-      <c r="D6" s="109">
+      <c r="D6" s="108">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
@@ -13184,7 +13184,7 @@
       <c r="C7" s="96">
         <v>127</v>
       </c>
-      <c r="D7" s="109">
+      <c r="D7" s="108">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
@@ -13221,7 +13221,7 @@
       <c r="C8" s="96">
         <v>162</v>
       </c>
-      <c r="D8" s="109">
+      <c r="D8" s="108">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
@@ -13258,7 +13258,7 @@
       <c r="C9" s="96">
         <v>162</v>
       </c>
-      <c r="D9" s="109">
+      <c r="D9" s="108">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
